--- a/docs/StructureDefinition-VAUnfinishedInpatientMedicationRequest.xlsx
+++ b/docs/StructureDefinition-VAUnfinishedInpatientMedicationRequest.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$126</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$139</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4665" uniqueCount="800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5148" uniqueCount="855">
   <si>
     <t>Path</t>
   </si>
@@ -346,6 +346,272 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
+    <t>medicationrequest-extendedPriority</t>
+  </si>
+  <si>
+    <t>PRIORITY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-extendedPriority}
+</t>
+  </si>
+  <si>
+    <t>Optional Extensions Element</t>
+  </si>
+  <si>
+    <t>This field contains the priority of the order that was received from OERR.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>NON-VERIFIED ORDERS @PRIORITY 53.1-.24b</t>
+  </si>
+  <si>
+    <t>medicationdispense-ivPrepRoom</t>
+  </si>
+  <si>
+    <t>IV ROOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationdispense-ivPrepRoom}
+</t>
+  </si>
+  <si>
+    <t>iv room</t>
+  </si>
+  <si>
+    <t>IV room where IV bag was prepared for administration.</t>
+  </si>
+  <si>
+    <t>NON-VERIFIED ORDERS @IV ROOM 53.1-62</t>
+  </si>
+  <si>
+    <t>medicationrequest-ivType</t>
+  </si>
+  <si>
+    <t>IV TYPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-ivType}
+</t>
+  </si>
+  <si>
+    <t>iv type</t>
+  </si>
+  <si>
+    <t>Type of IV - "A" for Admixture, "C" for Chemotherapy, "H" for Hyperal, "P" for Piggyback, and "S" for Syringe.</t>
+  </si>
+  <si>
+    <t>NON-VERIFIED ORDERS @IV TYPE    53.1-53</t>
+  </si>
+  <si>
+    <t>medicationrequest-requestedStartDate</t>
+  </si>
+  <si>
+    <t>REQUESTED START DATE/TIME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-requestedStartDate}
+</t>
+  </si>
+  <si>
+    <t>requested start date</t>
+  </si>
+  <si>
+    <t>This is the Date/Time the provider is requesting that this order start.</t>
+  </si>
+  <si>
+    <t>NON-VERIFIED ORDERS @REQUESTED START DATE/TIME 53.1-115</t>
+  </si>
+  <si>
+    <t>richAnnotation-comment-text</t>
+  </si>
+  <si>
+    <t>OTHER PRINT INFO (LONG)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/richAnnotation.comment.text}
+</t>
+  </si>
+  <si>
+    <t>For use by Pharmacy to print additional information on IV labels and reports. This is very similar to the REMARKS (#.1) field in the IV (#100) multiple of the PHARMACY PATIENT (#55) file, except OTHER PRINT INFO is shown
+on the label and the IV REPORTS.</t>
+  </si>
+  <si>
+    <t>NON-VERIFIED ORDERS @OTHER PRINT INFO (LONG) 53.1-136</t>
+  </si>
+  <si>
+    <t>medicationrequest-orderPlacementChannel</t>
+  </si>
+  <si>
+    <t>NATURE OF ORDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-orderPlacementChannel}
+</t>
+  </si>
+  <si>
+    <t>nature of order</t>
+  </si>
+  <si>
+    <t>This is the method the provider used to communicate the order to the user  to enter (or take any other action on) the order.</t>
+  </si>
+  <si>
+    <t>NON-VERIFIED ORDERS @NATURE OF ORDER  53.1-110</t>
+  </si>
+  <si>
+    <t>pharmacy-dosageOrdered</t>
+  </si>
+  <si>
+    <t>DOSAGE ORDERED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/pharmacy-dosageOrdered}
+</t>
+  </si>
+  <si>
+    <t>dosage ordered</t>
+  </si>
+  <si>
+    <t>This is the amount of the medication the patient is to receive as one dose  for this order. This should be an amount with a unit of measure, such as '500mg' or '50CC'. THIS SHOULD NOT BE THE NUMBER OF TABLETS, ETC.</t>
+  </si>
+  <si>
+    <t>NON-VERIFIED ORDERS @DOSAGE ORDERED 53.1-109</t>
+  </si>
+  <si>
+    <t>medicationrequest-orderCreationMode</t>
+  </si>
+  <si>
+    <t>REASON ORDER CREATED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-orderCreationMode}
+</t>
+  </si>
+  <si>
+    <t>Reason Order Created</t>
+  </si>
+  <si>
+    <t>This is used to show the method used to create this order.</t>
+  </si>
+  <si>
+    <t>NON-VERIFIED ORDERS @REASON ORDER CREATED 53.1-103</t>
+  </si>
+  <si>
+    <t>medicationrequest-orderDraftDate</t>
+  </si>
+  <si>
+    <t>ORDER DATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-orderDraftDate}
+</t>
+  </si>
+  <si>
+    <t>Order date</t>
+  </si>
+  <si>
+    <t>This is the date the medication was ordered.</t>
+  </si>
+  <si>
+    <t>NON-VERIFIED ORDERS @ORDER DATE 53.1-27</t>
+  </si>
+  <si>
+    <t>unverifiedMedicationOrderFinishPrompt</t>
+  </si>
+  <si>
+    <t>UD/IV PROMPT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/unverifiedMedicationOrderFinishPrompt}
+</t>
+  </si>
+  <si>
+    <t>UD/IV Prompt</t>
+  </si>
+  <si>
+    <t>This field will be used during the finishing process to determine if the user should be prompted whether they wish to finish the order as an IV or Unit Dose order.</t>
+  </si>
+  <si>
+    <t>NON-VERIFIED ORDERS @UD/IV PROMPT 53.1-118</t>
+  </si>
+  <si>
+    <t>medicationrequest-pharmacyOrderStatus</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-pharmacyOrderStatus}
+</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>This is the status of the order.</t>
+  </si>
+  <si>
+    <t>NON-VERIFIED ORDERS @STATUS 53.1-28b</t>
+  </si>
+  <si>
+    <t>medicationrequest-medicationScheduleType</t>
+  </si>
+  <si>
+    <t>IV TYPE CATEGORY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-medicationScheduleType}
+</t>
+  </si>
+  <si>
+    <t>iv tpe category</t>
+  </si>
+  <si>
+    <t>This field contains the category of the order's IV TYPE.    The IV TYPE CATEGORY will be "C" (Continuous) for orders with an IV TYPE of Admixture, Hyperal, Non-Intermittent Syringe, or Chemotherapy with a  CHEMOTHERAPY TYPE of Admixture, Hyperal, or Non-Intermittent Syringe.   The IV TYPE CATEGORY will be "I" (Intermittent) for orders with an IV  TYPE of Piggyback, Intermittent Syringe, or Chemotherapy with a  CHEMOTHERAPY TYPE of Piggyback or Intermittent Syringe.</t>
+  </si>
+  <si>
+    <t>NON-VERIFIED ORDERS @IV TYPE CATEGORY 53.1-128</t>
+  </si>
+  <si>
+    <t>pharmacy-patientSelfMedication-extension-hospitalSupply</t>
+  </si>
+  <si>
+    <t>HOSPITAL SUPPLIED SELF MED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/pharmacy-patientSelfMedication.extension.hospitalSupply}
+</t>
+  </si>
+  <si>
+    <t>This should contain a `1' (or `YES') if this medication is to be a `SELF MED' and this site's pharmacy is to supply the medication.  This is only asked if the user enters `YES' (or `1') to the SELF MED prompt. If the SELF MED field is ever edited to show `NO' (or `0'), this is automatically deleted.</t>
+  </si>
+  <si>
+    <t>NON-VERIFIED ORDERS @HOSPITAL SUPPLIED SELF MED 53.1-6</t>
+  </si>
+  <si>
+    <t>pharmacy-patientSelfMedication-extension-selfAdminister</t>
+  </si>
+  <si>
+    <t>SELF MED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/pharmacy-patientSelfMedication.extension.selfAdminister}
+</t>
+  </si>
+  <si>
+    <t>This should contain a `1' (or `YES') if this medication is to be administered by the patient to himself.</t>
+  </si>
+  <si>
+    <t>NON-VERIFIED ORDERS @SELF MED 53.1-5</t>
+  </si>
+  <si>
     <t>medicationrequest-medicationrequestType</t>
   </si>
   <si>
@@ -362,273 +628,7 @@
     <t>This identifies the type of medication ordered.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
     <t>NON-VERIFIED ORDERS @TYPE 53.1-4</t>
-  </si>
-  <si>
-    <t>pharmacy-patientSelfMedication/extension/selfAdminister</t>
-  </si>
-  <si>
-    <t>SELF MED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/pharmacy-patientSelfMedication.extension.selfAdminister}
-</t>
-  </si>
-  <si>
-    <t>Optional Extensions Element</t>
-  </si>
-  <si>
-    <t>This should contain a `1' (or `YES') if this medication is to be administered by the patient to himself.</t>
-  </si>
-  <si>
-    <t>NON-VERIFIED ORDERS @SELF MED 53.1-5</t>
-  </si>
-  <si>
-    <t>pharmacy-patientSelfMedication/extension/hospitalSupply</t>
-  </si>
-  <si>
-    <t>HOSPITAL SUPPLIED SELF MED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/pharmacy-patientSelfMedication.extension.hospitalSupply}
-</t>
-  </si>
-  <si>
-    <t>This should contain a `1' (or `YES') if this medication is to be a `SELF MED' and this site's pharmacy is to supply the medication.  This is only asked if the user enters `YES' (or `1') to the SELF MED prompt. If the SELF MED field is ever edited to show `NO' (or `0'), this is automatically deleted.</t>
-  </si>
-  <si>
-    <t>NON-VERIFIED ORDERS @HOSPITAL SUPPLIED SELF MED 53.1-6</t>
-  </si>
-  <si>
-    <t>medicationrequest-medicationScheduleType</t>
-  </si>
-  <si>
-    <t>IV TYPE CATEGORY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-medicationScheduleType}
-</t>
-  </si>
-  <si>
-    <t>iv tpe category</t>
-  </si>
-  <si>
-    <t>This field contains the category of the order's IV TYPE.    The IV TYPE CATEGORY will be "C" (Continuous) for orders with an IV TYPE of Admixture, Hyperal, Non-Intermittent Syringe, or Chemotherapy with a  CHEMOTHERAPY TYPE of Admixture, Hyperal, or Non-Intermittent Syringe.   The IV TYPE CATEGORY will be "I" (Intermittent) for orders with an IV  TYPE of Piggyback, Intermittent Syringe, or Chemotherapy with a  CHEMOTHERAPY TYPE of Piggyback or Intermittent Syringe.</t>
-  </si>
-  <si>
-    <t>NON-VERIFIED ORDERS @IV TYPE CATEGORY 53.1-128</t>
-  </si>
-  <si>
-    <t>medicationrequest-pharmacyOrderStatus</t>
-  </si>
-  <si>
-    <t>STATUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-pharmacyOrderStatus}
-</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>This is the status of the order.</t>
-  </si>
-  <si>
-    <t>NON-VERIFIED ORDERS @STATUS 53.1-28b</t>
-  </si>
-  <si>
-    <t>unverifiedMedicationOrderFinishPrompt</t>
-  </si>
-  <si>
-    <t>UD/IV PROMPT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/unverifiedMedicationOrderFinishPrompt}
-</t>
-  </si>
-  <si>
-    <t>UD/IV Prompt</t>
-  </si>
-  <si>
-    <t>This field will be used during the finishing process to determine if the user should be prompted whether they wish to finish the order as an IV or Unit Dose order.</t>
-  </si>
-  <si>
-    <t>NON-VERIFIED ORDERS @UD/IV PROMPT 53.1-118</t>
-  </si>
-  <si>
-    <t>medicationrequest-orderDraftDate</t>
-  </si>
-  <si>
-    <t>ORDER DATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-orderDraftDate}
-</t>
-  </si>
-  <si>
-    <t>Order date</t>
-  </si>
-  <si>
-    <t>This is the date the medication was ordered.</t>
-  </si>
-  <si>
-    <t>NON-VERIFIED ORDERS @ORDER DATE 53.1-27</t>
-  </si>
-  <si>
-    <t>medicationrequest-orderCreationMode</t>
-  </si>
-  <si>
-    <t>REASON ORDER CREATED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-orderCreationMode}
-</t>
-  </si>
-  <si>
-    <t>Reason Order Created</t>
-  </si>
-  <si>
-    <t>This is used to show the method used to create this order.</t>
-  </si>
-  <si>
-    <t>NON-VERIFIED ORDERS @REASON ORDER CREATED 53.1-103</t>
-  </si>
-  <si>
-    <t>pharmacy-dosageOrdered</t>
-  </si>
-  <si>
-    <t>DOSAGE ORDERED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/pharmacy-dosageOrdered}
-</t>
-  </si>
-  <si>
-    <t>dosage ordered</t>
-  </si>
-  <si>
-    <t>This is the amount of the medication the patient is to receive as one dose  for this order. This should be an amount with a unit of measure, such as '500mg' or '50CC'. THIS SHOULD NOT BE THE NUMBER OF TABLETS, ETC.</t>
-  </si>
-  <si>
-    <t>NON-VERIFIED ORDERS @DOSAGE ORDERED 53.1-109</t>
-  </si>
-  <si>
-    <t>medicationrequest-orderPlacementChannel</t>
-  </si>
-  <si>
-    <t>NATURE OF ORDER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-orderPlacementChannel}
-</t>
-  </si>
-  <si>
-    <t>nature of order</t>
-  </si>
-  <si>
-    <t>This is the method the provider used to communicate the order to the user  to enter (or take any other action on) the order.</t>
-  </si>
-  <si>
-    <t>NON-VERIFIED ORDERS @NATURE OF ORDER  53.1-110</t>
-  </si>
-  <si>
-    <t>richAnnotation/comment/text</t>
-  </si>
-  <si>
-    <t>OTHER PRINT INFO (LONG)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/richAnnotation.comment.text}
-</t>
-  </si>
-  <si>
-    <t>For use by Pharmacy to print additional information on IV labels and reports. This is very similar to the REMARKS (#.1) field in the IV (#100) multiple of the PHARMACY PATIENT (#55) file, except OTHER PRINT INFO is shown
-on the label and the IV REPORTS.</t>
-  </si>
-  <si>
-    <t>NON-VERIFIED ORDERS @OTHER PRINT INFO (LONG) 53.1-136</t>
-  </si>
-  <si>
-    <t>medicationrequest-requestedStartDate</t>
-  </si>
-  <si>
-    <t>REQUESTED START DATE/TIME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-requestedStartDate}
-</t>
-  </si>
-  <si>
-    <t>requested start date</t>
-  </si>
-  <si>
-    <t>This is the Date/Time the provider is requesting that this order start.</t>
-  </si>
-  <si>
-    <t>NON-VERIFIED ORDERS @REQUESTED START DATE/TIME 53.1-115</t>
-  </si>
-  <si>
-    <t>medicationrequest-ivType</t>
-  </si>
-  <si>
-    <t>IV TYPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-ivType}
-</t>
-  </si>
-  <si>
-    <t>iv type</t>
-  </si>
-  <si>
-    <t>Type of IV - "A" for Admixture, "C" for Chemotherapy, "H" for Hyperal, "P" for Piggyback, and "S" for Syringe.</t>
-  </si>
-  <si>
-    <t>NON-VERIFIED ORDERS @IV TYPE    53.1-53</t>
-  </si>
-  <si>
-    <t>medicationdispense-ivPrepRoom</t>
-  </si>
-  <si>
-    <t>IV ROOM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationdispense-ivPrepRoom}
-</t>
-  </si>
-  <si>
-    <t>iv room</t>
-  </si>
-  <si>
-    <t>IV room where IV bag was prepared for administration.</t>
-  </si>
-  <si>
-    <t>NON-VERIFIED ORDERS @IV ROOM 53.1-62</t>
-  </si>
-  <si>
-    <t>medicationrequest-extendedPriority</t>
-  </si>
-  <si>
-    <t>PRIORITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-extendedPriority}
-</t>
-  </si>
-  <si>
-    <t>This field contains the priority of the order that was received from OERR.</t>
-  </si>
-  <si>
-    <t>NON-VERIFIED ORDERS @PRIORITY 53.1-.24b</t>
   </si>
   <si>
     <t>MedicationRequest.modifierExtension</t>
@@ -1743,6 +1743,9 @@
     <t>MedicationRequest.dosageInstruction.timing.repeat.duration</t>
   </si>
   <si>
+    <t>DURATION</t>
+  </si>
+  <si>
     <t xml:space="preserve">decimal
 </t>
   </si>
@@ -1750,7 +1753,7 @@
     <t>How long when it happens</t>
   </si>
   <si>
-    <t>How long this thing happens for when it happens.</t>
+    <t>This is the length of time in days the provider requests that this order last.</t>
   </si>
   <si>
     <t>For some events the duration is part of the definition of the event (e.g. IV infusions, where the duration is implicit in the specified quantity and rate). For others, it's part of the timing specification (e.g. exercise).</t>
@@ -1762,6 +1765,9 @@
     <t>Timing.repeat.duration</t>
   </si>
   <si>
+    <t>NON-VERIFIED ORDERS @DURATION 53.1-116</t>
+  </si>
+  <si>
     <t>PIVL.phase</t>
   </si>
   <si>
@@ -1784,6 +1790,9 @@
   </si>
   <si>
     <t>The units of time for the duration, in UCUM units.</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
   <si>
     <t>A unit of time (units from UCUM).</t>
@@ -2105,6 +2114,154 @@
     <t>.routeCode</t>
   </si>
   <si>
+    <t>MedicationRequest.dosageInstruction.route.id</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.route.extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.route.coding</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.route.coding.id</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.route.coding.extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.route.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should de-reference to some definition that establish the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://va.gov/terminology/vistaDefinedTerms/53.1-3</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.route.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured. and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.route.coding.code</t>
+  </si>
+  <si>
+    <t>MED ROUTE</t>
+  </si>
+  <si>
+    <t>Route</t>
+  </si>
+  <si>
+    <t>This is the route of administration for this medication.  (If a corresponding abbreviation is found for this route in the MEDICATION ROUTES file, this package will print that abbreviation on it's reports.)</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>NON-VERIFIED ORDERS @MED ROUTE 53.1-3</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.route.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.route.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - i.e. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.route.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
     <t>MedicationRequest.dosageInstruction.method</t>
   </si>
   <si>
@@ -2154,7 +2311,16 @@
     <t>Dosage.dose[x]</t>
   </si>
   <si>
+    <t>MedicationRequest.dosageInstruction.dose[x].id</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.dose[x].extension</t>
+  </si>
+  <si>
     <t>MedicationRequest.dosageInstruction.maxDosePerPeriod</t>
+  </si>
+  <si>
+    <t>REQUESTED IV LIMITATION</t>
   </si>
   <si>
     <t xml:space="preserve">Ratio
@@ -2164,7 +2330,7 @@
     <t>Upper limit on medication per unit of time</t>
   </si>
   <si>
-    <t>Upper limit on medication per unit of time.</t>
+    <t>This is the length of time to administer, or the total volume to  administer, for IV fluid orders. The value may be in ML or CC for milliliters, L for liters, D for days, or H for hours.</t>
   </si>
   <si>
     <t>This is intended for use as an adjunct to the dosage when there is an upper cap.  For example "2 tablets every 4 hours to a maximum of 8/day".</t>
@@ -2174,6 +2340,9 @@
   </si>
   <si>
     <t>Dosage.maxDosePerPeriod</t>
+  </si>
+  <si>
+    <t>NON-VERIFIED ORDERS @REQUESTED IV LIMITATION 53.1-127</t>
   </si>
   <si>
     <t>.maxDoseQuantity</t>
@@ -2406,10 +2575,6 @@
   </si>
   <si>
     <t>MedicationRequest.substitution.allowed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
   </si>
   <si>
     <t>Whether substitution is allowed or not</t>
@@ -2658,7 +2823,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO126"/>
+  <dimension ref="A1:AO139"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2668,7 +2833,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="68.05859375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="54.62109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="54.7109375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="29.33203125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -4033,10 +4198,10 @@
         <v>121</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -4102,7 +4267,7 @@
         <v>111</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>45</v>
@@ -4125,13 +4290,13 @@
         <v>98</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E13" t="s" s="2">
         <v>43</v>
@@ -4149,13 +4314,13 @@
         <v>45</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -4221,7 +4386,7 @@
         <v>111</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>45</v>
@@ -4244,13 +4409,13 @@
         <v>98</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E14" t="s" s="2">
         <v>43</v>
@@ -4268,10 +4433,10 @@
         <v>45</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>134</v>
@@ -4985,10 +5150,10 @@
         <v>168</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>116</v>
+        <v>169</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -5054,7 +5219,7 @@
         <v>111</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>45</v>
@@ -5077,13 +5242,13 @@
         <v>98</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E21" t="s" s="2">
         <v>43</v>
@@ -5101,13 +5266,13 @@
         <v>45</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -5173,7 +5338,7 @@
         <v>111</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>45</v>
@@ -5196,13 +5361,13 @@
         <v>98</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E22" t="s" s="2">
         <v>43</v>
@@ -5220,10 +5385,10 @@
         <v>45</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>180</v>
+        <v>108</v>
       </c>
       <c r="L22" t="s" s="2">
         <v>181</v>
@@ -5342,10 +5507,10 @@
         <v>185</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -5411,7 +5576,7 @@
         <v>111</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>45</v>
@@ -5434,13 +5599,13 @@
         <v>98</v>
       </c>
       <c r="B24" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D24" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D24" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="E24" t="s" s="2">
         <v>43</v>
@@ -5458,10 +5623,10 @@
         <v>45</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="K24" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>192</v>
@@ -7076,7 +7241,7 @@
         <v>45</v>
       </c>
       <c r="D38" t="s" s="2">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="E38" t="s" s="2">
         <v>43</v>
@@ -7097,10 +7262,10 @@
         <v>73</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>295</v>
@@ -7425,7 +7590,7 @@
         <v>45</v>
       </c>
       <c r="D41" t="s" s="2">
-        <v>190</v>
+        <v>106</v>
       </c>
       <c r="E41" t="s" s="2">
         <v>43</v>
@@ -7449,7 +7614,7 @@
         <v>320</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>192</v>
+        <v>109</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -12199,7 +12364,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="82" hidden="true">
+    <row r="82">
       <c r="A82" t="s" s="2">
         <v>548</v>
       </c>
@@ -12207,7 +12372,9 @@
       <c r="C82" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>549</v>
+      </c>
       <c r="E82" t="s" s="2">
         <v>43</v>
       </c>
@@ -12215,7 +12382,7 @@
         <v>54</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>45</v>
@@ -12224,19 +12391,19 @@
         <v>55</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>45</v>
@@ -12285,7 +12452,7 @@
         <v>45</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>43</v>
@@ -12300,7 +12467,7 @@
         <v>45</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>45</v>
+        <v>556</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>45</v>
@@ -12309,7 +12476,7 @@
         <v>45</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>45</v>
@@ -12320,7 +12487,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -12343,19 +12510,19 @@
         <v>55</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>45</v>
@@ -12404,7 +12571,7 @@
         <v>45</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>43</v>
@@ -12428,7 +12595,7 @@
         <v>45</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>45</v>
@@ -12437,9 +12604,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="84" hidden="true">
+    <row r="84">
       <c r="A84" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12453,7 +12620,7 @@
         <v>54</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>45</v>
@@ -12465,10 +12632,10 @@
         <v>73</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -12477,7 +12644,7 @@
       </c>
       <c r="P84" s="2"/>
       <c r="Q84" t="s" s="2">
-        <v>45</v>
+        <v>565</v>
       </c>
       <c r="R84" t="s" s="2">
         <v>45</v>
@@ -12498,10 +12665,10 @@
         <v>225</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>45</v>
@@ -12519,7 +12686,7 @@
         <v>45</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>43</v>
@@ -12543,7 +12710,7 @@
         <v>45</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>45</v>
@@ -12554,7 +12721,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12580,10 +12747,10 @@
         <v>451</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -12634,7 +12801,7 @@
         <v>45</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>43</v>
@@ -12658,7 +12825,7 @@
         <v>45</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>45</v>
@@ -12669,7 +12836,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12695,10 +12862,10 @@
         <v>451</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -12749,7 +12916,7 @@
         <v>45</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>43</v>
@@ -12773,7 +12940,7 @@
         <v>45</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>45</v>
@@ -12784,7 +12951,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12807,13 +12974,13 @@
         <v>55</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -12864,7 +13031,7 @@
         <v>45</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>43</v>
@@ -12888,7 +13055,7 @@
         <v>45</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>45</v>
@@ -12899,7 +13066,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12922,13 +13089,13 @@
         <v>55</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -12979,7 +13146,7 @@
         <v>45</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>43</v>
@@ -13003,7 +13170,7 @@
         <v>45</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>45</v>
@@ -13014,7 +13181,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -13040,10 +13207,10 @@
         <v>73</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -13052,7 +13219,7 @@
       </c>
       <c r="P89" s="2"/>
       <c r="Q89" t="s" s="2">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="R89" t="s" s="2">
         <v>45</v>
@@ -13073,10 +13240,10 @@
         <v>225</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>45</v>
@@ -13094,7 +13261,7 @@
         <v>45</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>43</v>
@@ -13118,7 +13285,7 @@
         <v>45</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>45</v>
@@ -13129,7 +13296,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -13155,13 +13322,13 @@
         <v>73</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -13191,7 +13358,7 @@
       </c>
       <c r="X90" s="2"/>
       <c r="Y90" t="s" s="2">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>45</v>
@@ -13209,7 +13376,7 @@
         <v>45</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>43</v>
@@ -13244,7 +13411,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -13267,16 +13434,16 @@
         <v>55</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -13326,7 +13493,7 @@
         <v>45</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>43</v>
@@ -13361,7 +13528,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -13387,16 +13554,16 @@
         <v>73</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>45</v>
@@ -13424,10 +13591,10 @@
         <v>225</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>45</v>
@@ -13445,7 +13612,7 @@
         <v>45</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>43</v>
@@ -13469,7 +13636,7 @@
         <v>45</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>45</v>
@@ -13480,7 +13647,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13503,13 +13670,13 @@
         <v>55</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -13560,7 +13727,7 @@
         <v>45</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>43</v>
@@ -13584,7 +13751,7 @@
         <v>45</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>45</v>
@@ -13595,7 +13762,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13621,13 +13788,13 @@
         <v>231</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
@@ -13656,10 +13823,10 @@
         <v>296</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>45</v>
@@ -13677,7 +13844,7 @@
         <v>45</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>43</v>
@@ -13701,7 +13868,7 @@
         <v>45</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>45</v>
@@ -13712,7 +13879,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13827,7 +13994,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13944,7 +14111,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13967,19 +14134,19 @@
         <v>55</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>45</v>
@@ -14028,7 +14195,7 @@
         <v>45</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>43</v>
@@ -14052,25 +14219,25 @@
         <v>45</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO97" t="s" s="2">
-        <v>631</v>
+        <v>634</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D98" t="s" s="2">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="E98" t="s" s="2">
         <v>43</v>
@@ -14091,16 +14258,16 @@
         <v>210</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>45</v>
@@ -14149,7 +14316,7 @@
         <v>45</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>43</v>
@@ -14164,7 +14331,7 @@
         <v>45</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>45</v>
@@ -14173,18 +14340,18 @@
         <v>45</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO98" t="s" s="2">
-        <v>641</v>
+        <v>644</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -14207,16 +14374,16 @@
         <v>55</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
@@ -14245,10 +14412,10 @@
         <v>332</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="Z99" t="s" s="2">
         <v>45</v>
@@ -14266,7 +14433,7 @@
         <v>45</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>43</v>
@@ -14290,7 +14457,7 @@
         <v>45</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>45</v>
@@ -14301,7 +14468,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -14327,16 +14494,16 @@
         <v>231</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>45</v>
@@ -14364,10 +14531,10 @@
         <v>332</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="Z100" t="s" s="2">
         <v>45</v>
@@ -14385,7 +14552,7 @@
         <v>45</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>43</v>
@@ -14409,7 +14576,7 @@
         <v>45</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>45</v>
@@ -14420,7 +14587,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14446,14 +14613,14 @@
         <v>231</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" t="s" s="2">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="O101" t="s" s="2">
         <v>45</v>
@@ -14481,10 +14648,10 @@
         <v>332</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="Z101" t="s" s="2">
         <v>45</v>
@@ -14502,7 +14669,7 @@
         <v>45</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>43</v>
@@ -14526,7 +14693,7 @@
         <v>45</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>45</v>
@@ -14537,7 +14704,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14557,23 +14724,19 @@
         <v>45</v>
       </c>
       <c r="I102" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>669</v>
+        <v>211</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>672</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="M102" s="2"/>
+      <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
         <v>45</v>
       </c>
@@ -14597,13 +14760,13 @@
         <v>45</v>
       </c>
       <c r="W102" t="s" s="2">
-        <v>332</v>
+        <v>45</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>673</v>
+        <v>45</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>674</v>
+        <v>45</v>
       </c>
       <c r="Z102" t="s" s="2">
         <v>45</v>
@@ -14621,7 +14784,7 @@
         <v>45</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>675</v>
+        <v>213</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>43</v>
@@ -14645,7 +14808,7 @@
         <v>45</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>676</v>
+        <v>214</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>45</v>
@@ -14656,18 +14819,18 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
-        <v>45</v>
+        <v>195</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>45</v>
@@ -14676,23 +14839,21 @@
         <v>45</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>678</v>
+        <v>99</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>679</v>
+        <v>216</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>680</v>
+        <v>217</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>681</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>682</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
         <v>45</v>
       </c>
@@ -14728,25 +14889,25 @@
         <v>45</v>
       </c>
       <c r="AA103" t="s" s="2">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="AB103" t="s" s="2">
-        <v>45</v>
+        <v>218</v>
       </c>
       <c r="AC103" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD103" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>683</v>
+        <v>219</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>45</v>
@@ -14764,7 +14925,7 @@
         <v>45</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>676</v>
+        <v>214</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>45</v>
@@ -14775,7 +14936,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14786,7 +14947,7 @@
         <v>43</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>45</v>
@@ -14798,19 +14959,19 @@
         <v>55</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>685</v>
+        <v>627</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>686</v>
+        <v>628</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>687</v>
+        <v>629</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>688</v>
+        <v>630</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>689</v>
+        <v>631</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>45</v>
@@ -14859,13 +15020,13 @@
         <v>45</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>690</v>
+        <v>632</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>45</v>
@@ -14883,18 +15044,18 @@
         <v>45</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>691</v>
+        <v>633</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO104" t="s" s="2">
-        <v>45</v>
+        <v>634</v>
       </c>
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>692</v>
+        <v>674</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14914,23 +15075,19 @@
         <v>45</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>693</v>
+        <v>210</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>694</v>
+        <v>211</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>696</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>697</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="M105" s="2"/>
+      <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
         <v>45</v>
       </c>
@@ -14978,7 +15135,7 @@
         <v>45</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>698</v>
+        <v>213</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>43</v>
@@ -15002,7 +15159,7 @@
         <v>45</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>699</v>
+        <v>214</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>45</v>
@@ -15013,18 +15170,18 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>700</v>
+        <v>675</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
-        <v>45</v>
+        <v>195</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>45</v>
@@ -15033,21 +15190,21 @@
         <v>45</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>693</v>
+        <v>99</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>701</v>
+        <v>216</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>702</v>
-      </c>
-      <c r="M106" s="2"/>
-      <c r="N106" t="s" s="2">
-        <v>703</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
         <v>45</v>
       </c>
@@ -15083,25 +15240,25 @@
         <v>45</v>
       </c>
       <c r="AA106" t="s" s="2">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="AB106" t="s" s="2">
-        <v>45</v>
+        <v>218</v>
       </c>
       <c r="AC106" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD106" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>704</v>
+        <v>219</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>45</v>
@@ -15119,7 +15276,7 @@
         <v>45</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>699</v>
+        <v>214</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>45</v>
@@ -15128,9 +15285,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="107" hidden="true">
+    <row r="107">
       <c r="A107" t="s" s="2">
-        <v>705</v>
+        <v>676</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -15144,7 +15301,7 @@
         <v>54</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>45</v>
@@ -15153,26 +15310,26 @@
         <v>55</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>685</v>
+        <v>67</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>706</v>
+        <v>677</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>707</v>
+        <v>678</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>708</v>
+        <v>679</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>709</v>
+        <v>680</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P107" s="2"/>
       <c r="Q107" t="s" s="2">
-        <v>45</v>
+        <v>681</v>
       </c>
       <c r="R107" t="s" s="2">
         <v>45</v>
@@ -15202,17 +15359,19 @@
         <v>45</v>
       </c>
       <c r="AA107" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="AB107" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC107" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD107" t="s" s="2">
-        <v>511</v>
+        <v>45</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>710</v>
+        <v>682</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>43</v>
@@ -15236,28 +15395,24 @@
         <v>45</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>711</v>
+        <v>683</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO107" t="s" s="2">
-        <v>45</v>
+        <v>684</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>705</v>
-      </c>
-      <c r="B108" t="s" s="2">
-        <v>712</v>
-      </c>
+        <v>685</v>
+      </c>
+      <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D108" t="s" s="2">
-        <v>713</v>
-      </c>
+      <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
         <v>43</v>
       </c>
@@ -15265,7 +15420,7 @@
         <v>54</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>45</v>
@@ -15274,20 +15429,18 @@
         <v>55</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>685</v>
+        <v>210</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>714</v>
+        <v>686</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>715</v>
+        <v>687</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>708</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>709</v>
-      </c>
+        <v>688</v>
+      </c>
+      <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
         <v>45</v>
       </c>
@@ -15335,7 +15488,7 @@
         <v>45</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>710</v>
+        <v>689</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>43</v>
@@ -15350,7 +15503,7 @@
         <v>45</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>716</v>
+        <v>45</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>45</v>
@@ -15359,24 +15512,26 @@
         <v>45</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>711</v>
+        <v>690</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO108" t="s" s="2">
-        <v>45</v>
+        <v>691</v>
       </c>
     </row>
-    <row r="109" hidden="true">
+    <row r="109">
       <c r="A109" t="s" s="2">
-        <v>717</v>
+        <v>692</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D109" s="2"/>
+      <c r="D109" t="s" s="2">
+        <v>693</v>
+      </c>
       <c r="E109" t="s" s="2">
         <v>43</v>
       </c>
@@ -15384,25 +15539,27 @@
         <v>54</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I109" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>380</v>
+        <v>73</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>718</v>
+        <v>694</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>719</v>
+        <v>695</v>
       </c>
       <c r="M109" s="2"/>
-      <c r="N109" s="2"/>
+      <c r="N109" t="s" s="2">
+        <v>696</v>
+      </c>
       <c r="O109" t="s" s="2">
         <v>45</v>
       </c>
@@ -15450,7 +15607,7 @@
         <v>45</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>717</v>
+        <v>697</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>43</v>
@@ -15462,30 +15619,30 @@
         <v>45</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>720</v>
+        <v>45</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>45</v>
+        <v>698</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>721</v>
+        <v>45</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>722</v>
+        <v>699</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO109" t="s" s="2">
-        <v>45</v>
+        <v>700</v>
       </c>
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>723</v>
+        <v>701</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15505,19 +15662,21 @@
         <v>45</v>
       </c>
       <c r="I110" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J110" t="s" s="2">
         <v>210</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>211</v>
+        <v>702</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>212</v>
+        <v>703</v>
       </c>
       <c r="M110" s="2"/>
-      <c r="N110" s="2"/>
+      <c r="N110" t="s" s="2">
+        <v>704</v>
+      </c>
       <c r="O110" t="s" s="2">
         <v>45</v>
       </c>
@@ -15565,7 +15724,7 @@
         <v>45</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>213</v>
+        <v>705</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>43</v>
@@ -15589,29 +15748,29 @@
         <v>45</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>214</v>
+        <v>706</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO110" t="s" s="2">
-        <v>45</v>
+        <v>707</v>
       </c>
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
-        <v>195</v>
+        <v>45</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F111" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G111" t="s" s="2">
         <v>45</v>
@@ -15620,21 +15779,23 @@
         <v>45</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>99</v>
+        <v>709</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>216</v>
+        <v>710</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>217</v>
+        <v>711</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N111" s="2"/>
+        <v>712</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>713</v>
+      </c>
       <c r="O111" t="s" s="2">
         <v>45</v>
       </c>
@@ -15682,13 +15843,13 @@
         <v>45</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>219</v>
+        <v>714</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>45</v>
@@ -15706,52 +15867,54 @@
         <v>45</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>214</v>
+        <v>715</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO111" t="s" s="2">
-        <v>45</v>
+        <v>716</v>
       </c>
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
-        <v>389</v>
+        <v>45</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F112" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G112" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H112" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I112" t="s" s="2">
         <v>55</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>99</v>
+        <v>210</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>196</v>
+        <v>718</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>390</v>
+        <v>719</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N112" s="2"/>
+        <v>639</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>640</v>
+      </c>
       <c r="O112" t="s" s="2">
         <v>45</v>
       </c>
@@ -15799,13 +15962,13 @@
         <v>45</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>391</v>
+        <v>641</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>45</v>
@@ -15823,18 +15986,18 @@
         <v>45</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>97</v>
+        <v>643</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO112" t="s" s="2">
-        <v>45</v>
+        <v>644</v>
       </c>
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15854,22 +16017,22 @@
         <v>45</v>
       </c>
       <c r="I113" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>45</v>
@@ -15894,13 +16057,13 @@
         <v>45</v>
       </c>
       <c r="W113" t="s" s="2">
-        <v>45</v>
+        <v>332</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>45</v>
+        <v>725</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>45</v>
+        <v>726</v>
       </c>
       <c r="Z113" t="s" s="2">
         <v>45</v>
@@ -15918,7 +16081,7 @@
         <v>45</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>43</v>
@@ -15939,10 +16102,10 @@
         <v>45</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>731</v>
+        <v>45</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>45</v>
@@ -15953,7 +16116,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15973,21 +16136,23 @@
         <v>45</v>
       </c>
       <c r="I114" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J114" t="s" s="2">
+        <v>730</v>
+      </c>
+      <c r="K114" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>732</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>733</v>
+      </c>
+      <c r="N114" t="s" s="2">
         <v>734</v>
       </c>
-      <c r="K114" t="s" s="2">
-        <v>735</v>
-      </c>
-      <c r="L114" t="s" s="2">
-        <v>736</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>737</v>
-      </c>
-      <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
         <v>45</v>
       </c>
@@ -16035,7 +16200,7 @@
         <v>45</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>43</v>
@@ -16056,21 +16221,21 @@
         <v>45</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>738</v>
+        <v>45</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO114" t="s" s="2">
-        <v>740</v>
+        <v>45</v>
       </c>
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -16093,13 +16258,13 @@
         <v>45</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>693</v>
+        <v>210</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>742</v>
+        <v>211</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>743</v>
+        <v>212</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
@@ -16150,7 +16315,7 @@
         <v>45</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>741</v>
+        <v>213</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>43</v>
@@ -16171,32 +16336,32 @@
         <v>45</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>744</v>
+        <v>45</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>745</v>
+        <v>214</v>
       </c>
       <c r="AN115" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO115" t="s" s="2">
-        <v>746</v>
+        <v>45</v>
       </c>
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
-        <v>45</v>
+        <v>195</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F116" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G116" t="s" s="2">
         <v>45</v>
@@ -16208,16 +16373,16 @@
         <v>45</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>748</v>
+        <v>99</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>749</v>
+        <v>216</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>750</v>
+        <v>217</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>751</v>
+        <v>198</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
@@ -16255,26 +16420,22 @@
         <v>45</v>
       </c>
       <c r="AA116" t="s" s="2">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="AB116" t="s" s="2">
-        <v>45</v>
+        <v>218</v>
       </c>
       <c r="AC116" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD116" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE116" t="s" s="2">
-        <v>747</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="AE116" s="2"/>
       <c r="AF116" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG116" t="s" s="2">
-        <v>54</v>
-      </c>
+      <c r="AG116" s="2"/>
       <c r="AH116" t="s" s="2">
         <v>45</v>
       </c>
@@ -16288,10 +16449,10 @@
         <v>45</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>752</v>
+        <v>45</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>753</v>
+        <v>214</v>
       </c>
       <c r="AN116" t="s" s="2">
         <v>45</v>
@@ -16300,15 +16461,17 @@
         <v>45</v>
       </c>
     </row>
-    <row r="117" hidden="true">
+    <row r="117">
       <c r="A117" t="s" s="2">
-        <v>754</v>
+        <v>738</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D117" s="2"/>
+      <c r="D117" t="s" s="2">
+        <v>739</v>
+      </c>
       <c r="E117" t="s" s="2">
         <v>43</v>
       </c>
@@ -16316,25 +16479,29 @@
         <v>54</v>
       </c>
       <c r="G117" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H117" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I117" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>267</v>
+        <v>740</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>755</v>
+        <v>741</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>756</v>
-      </c>
-      <c r="M117" s="2"/>
-      <c r="N117" s="2"/>
+        <v>742</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>743</v>
+      </c>
+      <c r="N117" t="s" s="2">
+        <v>744</v>
+      </c>
       <c r="O117" t="s" s="2">
         <v>45</v>
       </c>
@@ -16382,7 +16549,7 @@
         <v>45</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>43</v>
@@ -16397,7 +16564,7 @@
         <v>45</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>45</v>
+        <v>746</v>
       </c>
       <c r="AK117" t="s" s="2">
         <v>45</v>
@@ -16406,10 +16573,10 @@
         <v>45</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>415</v>
+        <v>45</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>45</v>
@@ -16417,7 +16584,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -16437,19 +16604,23 @@
         <v>45</v>
       </c>
       <c r="I118" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>380</v>
+        <v>749</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>760</v>
-      </c>
-      <c r="M118" s="2"/>
-      <c r="N118" s="2"/>
+        <v>751</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>752</v>
+      </c>
+      <c r="N118" t="s" s="2">
+        <v>753</v>
+      </c>
       <c r="O118" t="s" s="2">
         <v>45</v>
       </c>
@@ -16497,7 +16668,7 @@
         <v>45</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>43</v>
@@ -16509,7 +16680,7 @@
         <v>45</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>720</v>
+        <v>45</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>45</v>
@@ -16518,10 +16689,10 @@
         <v>45</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>761</v>
+        <v>45</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="AN118" t="s" s="2">
         <v>45</v>
@@ -16532,7 +16703,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16552,19 +16723,21 @@
         <v>45</v>
       </c>
       <c r="I119" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>210</v>
+        <v>749</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>211</v>
+        <v>757</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>212</v>
+        <v>758</v>
       </c>
       <c r="M119" s="2"/>
-      <c r="N119" s="2"/>
+      <c r="N119" t="s" s="2">
+        <v>759</v>
+      </c>
       <c r="O119" t="s" s="2">
         <v>45</v>
       </c>
@@ -16612,7 +16785,7 @@
         <v>45</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>213</v>
+        <v>760</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>43</v>
@@ -16636,7 +16809,7 @@
         <v>45</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>214</v>
+        <v>755</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>45</v>
@@ -16647,18 +16820,18 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
-        <v>195</v>
+        <v>45</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F120" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G120" t="s" s="2">
         <v>45</v>
@@ -16667,21 +16840,23 @@
         <v>45</v>
       </c>
       <c r="I120" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>99</v>
+        <v>740</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>216</v>
+        <v>762</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>217</v>
+        <v>763</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N120" s="2"/>
+        <v>764</v>
+      </c>
+      <c r="N120" t="s" s="2">
+        <v>765</v>
+      </c>
       <c r="O120" t="s" s="2">
         <v>45</v>
       </c>
@@ -16717,25 +16892,23 @@
         <v>45</v>
       </c>
       <c r="AA120" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB120" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="AB120" s="2"/>
       <c r="AC120" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD120" t="s" s="2">
-        <v>45</v>
+        <v>511</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>219</v>
+        <v>766</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>45</v>
@@ -16753,7 +16926,7 @@
         <v>45</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>214</v>
+        <v>767</v>
       </c>
       <c r="AN120" t="s" s="2">
         <v>45</v>
@@ -16762,43 +16935,49 @@
         <v>45</v>
       </c>
     </row>
-    <row r="121" hidden="true">
+    <row r="121">
       <c r="A121" t="s" s="2">
-        <v>765</v>
-      </c>
-      <c r="B121" s="2"/>
+        <v>761</v>
+      </c>
+      <c r="B121" t="s" s="2">
+        <v>768</v>
+      </c>
       <c r="C121" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="D121" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="D121" t="s" s="2">
+        <v>769</v>
+      </c>
       <c r="E121" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F121" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G121" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H121" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I121" t="s" s="2">
         <v>55</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>99</v>
+        <v>740</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>196</v>
+        <v>770</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>390</v>
+        <v>771</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N121" s="2"/>
+        <v>764</v>
+      </c>
+      <c r="N121" t="s" s="2">
+        <v>765</v>
+      </c>
       <c r="O121" t="s" s="2">
         <v>45</v>
       </c>
@@ -16846,13 +17025,13 @@
         <v>45</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>391</v>
+        <v>766</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>45</v>
@@ -16861,7 +17040,7 @@
         <v>45</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>45</v>
+        <v>772</v>
       </c>
       <c r="AK121" t="s" s="2">
         <v>45</v>
@@ -16870,7 +17049,7 @@
         <v>45</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>97</v>
+        <v>767</v>
       </c>
       <c r="AN121" t="s" s="2">
         <v>45</v>
@@ -16881,7 +17060,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>766</v>
+        <v>773</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16889,7 +17068,7 @@
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F122" t="s" s="2">
         <v>54</v>
@@ -16898,23 +17077,21 @@
         <v>45</v>
       </c>
       <c r="H122" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I122" t="s" s="2">
         <v>45</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>767</v>
+        <v>380</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>768</v>
+        <v>774</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>769</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>770</v>
-      </c>
+        <v>775</v>
+      </c>
+      <c r="M122" s="2"/>
       <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
         <v>45</v>
@@ -16963,10 +17140,10 @@
         <v>45</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>766</v>
+        <v>773</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>54</v>
@@ -16975,7 +17152,7 @@
         <v>45</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>45</v>
+        <v>776</v>
       </c>
       <c r="AJ122" t="s" s="2">
         <v>45</v>
@@ -16984,21 +17161,21 @@
         <v>45</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>761</v>
+        <v>777</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>771</v>
+        <v>778</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO122" t="s" s="2">
-        <v>772</v>
+        <v>45</v>
       </c>
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -17021,13 +17198,13 @@
         <v>45</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>774</v>
+        <v>211</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>775</v>
+        <v>212</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -17054,13 +17231,13 @@
         <v>45</v>
       </c>
       <c r="W123" t="s" s="2">
-        <v>332</v>
+        <v>45</v>
       </c>
       <c r="X123" t="s" s="2">
-        <v>776</v>
+        <v>45</v>
       </c>
       <c r="Y123" t="s" s="2">
-        <v>777</v>
+        <v>45</v>
       </c>
       <c r="Z123" t="s" s="2">
         <v>45</v>
@@ -17078,7 +17255,7 @@
         <v>45</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>773</v>
+        <v>213</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>43</v>
@@ -17099,32 +17276,32 @@
         <v>45</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>778</v>
+        <v>45</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>779</v>
+        <v>214</v>
       </c>
       <c r="AN123" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO123" t="s" s="2">
-        <v>780</v>
+        <v>45</v>
       </c>
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
-        <v>45</v>
+        <v>195</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F124" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G124" t="s" s="2">
         <v>45</v>
@@ -17136,15 +17313,17 @@
         <v>45</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>782</v>
+        <v>99</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>783</v>
+        <v>216</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>784</v>
-      </c>
-      <c r="M124" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="M124" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
         <v>45</v>
@@ -17193,13 +17372,13 @@
         <v>45</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>781</v>
+        <v>219</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>45</v>
@@ -17211,13 +17390,13 @@
         <v>45</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>785</v>
+        <v>45</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>778</v>
+        <v>45</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>786</v>
+        <v>214</v>
       </c>
       <c r="AN124" t="s" s="2">
         <v>45</v>
@@ -17228,11 +17407,11 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
-        <v>788</v>
+        <v>389</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
@@ -17245,21 +17424,23 @@
         <v>45</v>
       </c>
       <c r="H125" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I125" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>789</v>
+        <v>99</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>790</v>
+        <v>196</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>791</v>
-      </c>
-      <c r="M125" s="2"/>
+        <v>390</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
         <v>45</v>
@@ -17308,7 +17489,7 @@
         <v>45</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>787</v>
+        <v>391</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>43</v>
@@ -17332,7 +17513,7 @@
         <v>45</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>792</v>
+        <v>97</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>45</v>
@@ -17343,7 +17524,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>793</v>
+        <v>782</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -17354,7 +17535,7 @@
         <v>43</v>
       </c>
       <c r="F126" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>45</v>
@@ -17366,18 +17547,20 @@
         <v>45</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>794</v>
+        <v>260</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>795</v>
+        <v>783</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>796</v>
+        <v>784</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>797</v>
-      </c>
-      <c r="N126" s="2"/>
+        <v>785</v>
+      </c>
+      <c r="N126" t="s" s="2">
+        <v>786</v>
+      </c>
       <c r="O126" t="s" s="2">
         <v>45</v>
       </c>
@@ -17425,41 +17608,1548 @@
         <v>45</v>
       </c>
       <c r="AE126" t="s" s="2">
+        <v>782</v>
+      </c>
+      <c r="AF126" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG126" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL126" t="s" s="2">
+        <v>787</v>
+      </c>
+      <c r="AM126" t="s" s="2">
+        <v>788</v>
+      </c>
+      <c r="AN126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO126" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="127" hidden="true">
+      <c r="A127" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B127" s="2"/>
+      <c r="C127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D127" s="2"/>
+      <c r="E127" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F127" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J127" t="s" s="2">
+        <v>790</v>
+      </c>
+      <c r="K127" t="s" s="2">
+        <v>791</v>
+      </c>
+      <c r="L127" t="s" s="2">
+        <v>792</v>
+      </c>
+      <c r="M127" t="s" s="2">
         <v>793</v>
       </c>
-      <c r="AF126" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG126" t="s" s="2">
+      <c r="N127" s="2"/>
+      <c r="O127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P127" s="2"/>
+      <c r="Q127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE127" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="AF127" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG127" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL127" t="s" s="2">
+        <v>794</v>
+      </c>
+      <c r="AM127" t="s" s="2">
+        <v>795</v>
+      </c>
+      <c r="AN127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO127" t="s" s="2">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="128" hidden="true">
+      <c r="A128" t="s" s="2">
+        <v>797</v>
+      </c>
+      <c r="B128" s="2"/>
+      <c r="C128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D128" s="2"/>
+      <c r="E128" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F128" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J128" t="s" s="2">
+        <v>749</v>
+      </c>
+      <c r="K128" t="s" s="2">
+        <v>798</v>
+      </c>
+      <c r="L128" t="s" s="2">
+        <v>799</v>
+      </c>
+      <c r="M128" s="2"/>
+      <c r="N128" s="2"/>
+      <c r="O128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P128" s="2"/>
+      <c r="Q128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE128" t="s" s="2">
+        <v>797</v>
+      </c>
+      <c r="AF128" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG128" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL128" t="s" s="2">
+        <v>800</v>
+      </c>
+      <c r="AM128" t="s" s="2">
+        <v>801</v>
+      </c>
+      <c r="AN128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO128" t="s" s="2">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="129" hidden="true">
+      <c r="A129" t="s" s="2">
+        <v>803</v>
+      </c>
+      <c r="B129" s="2"/>
+      <c r="C129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D129" s="2"/>
+      <c r="E129" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F129" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J129" t="s" s="2">
+        <v>804</v>
+      </c>
+      <c r="K129" t="s" s="2">
+        <v>805</v>
+      </c>
+      <c r="L129" t="s" s="2">
+        <v>806</v>
+      </c>
+      <c r="M129" t="s" s="2">
+        <v>807</v>
+      </c>
+      <c r="N129" s="2"/>
+      <c r="O129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P129" s="2"/>
+      <c r="Q129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE129" t="s" s="2">
+        <v>803</v>
+      </c>
+      <c r="AF129" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG129" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL129" t="s" s="2">
+        <v>808</v>
+      </c>
+      <c r="AM129" t="s" s="2">
+        <v>809</v>
+      </c>
+      <c r="AN129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO129" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="130" hidden="true">
+      <c r="A130" t="s" s="2">
+        <v>810</v>
+      </c>
+      <c r="B130" s="2"/>
+      <c r="C130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D130" s="2"/>
+      <c r="E130" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F130" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J130" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="K130" t="s" s="2">
+        <v>811</v>
+      </c>
+      <c r="L130" t="s" s="2">
+        <v>812</v>
+      </c>
+      <c r="M130" s="2"/>
+      <c r="N130" s="2"/>
+      <c r="O130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P130" s="2"/>
+      <c r="Q130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE130" t="s" s="2">
+        <v>810</v>
+      </c>
+      <c r="AF130" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG130" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM130" t="s" s="2">
+        <v>813</v>
+      </c>
+      <c r="AN130" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AO130" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="131" hidden="true">
+      <c r="A131" t="s" s="2">
+        <v>814</v>
+      </c>
+      <c r="B131" s="2"/>
+      <c r="C131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D131" s="2"/>
+      <c r="E131" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F131" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J131" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="K131" t="s" s="2">
+        <v>815</v>
+      </c>
+      <c r="L131" t="s" s="2">
+        <v>816</v>
+      </c>
+      <c r="M131" s="2"/>
+      <c r="N131" s="2"/>
+      <c r="O131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P131" s="2"/>
+      <c r="Q131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE131" t="s" s="2">
+        <v>814</v>
+      </c>
+      <c r="AF131" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG131" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI131" t="s" s="2">
+        <v>776</v>
+      </c>
+      <c r="AJ131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL131" t="s" s="2">
+        <v>817</v>
+      </c>
+      <c r="AM131" t="s" s="2">
+        <v>818</v>
+      </c>
+      <c r="AN131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO131" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="132" hidden="true">
+      <c r="A132" t="s" s="2">
+        <v>819</v>
+      </c>
+      <c r="B132" s="2"/>
+      <c r="C132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D132" s="2"/>
+      <c r="E132" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F132" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J132" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="K132" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L132" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M132" s="2"/>
+      <c r="N132" s="2"/>
+      <c r="O132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P132" s="2"/>
+      <c r="Q132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE132" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AF132" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG132" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM132" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AN132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO132" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="133" hidden="true">
+      <c r="A133" t="s" s="2">
+        <v>820</v>
+      </c>
+      <c r="B133" s="2"/>
+      <c r="C133" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="D133" s="2"/>
+      <c r="E133" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F133" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AH126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK126" t="s" s="2">
-        <v>798</v>
-      </c>
-      <c r="AL126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM126" t="s" s="2">
-        <v>799</v>
-      </c>
-      <c r="AN126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO126" t="s" s="2">
+      <c r="G133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J133" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K133" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L133" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="M133" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="N133" s="2"/>
+      <c r="O133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P133" s="2"/>
+      <c r="Q133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE133" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AF133" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG133" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM133" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AN133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO133" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="134" hidden="true">
+      <c r="A134" t="s" s="2">
+        <v>821</v>
+      </c>
+      <c r="B134" s="2"/>
+      <c r="C134" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="D134" s="2"/>
+      <c r="E134" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F134" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H134" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="I134" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="J134" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K134" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L134" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="M134" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="N134" s="2"/>
+      <c r="O134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P134" s="2"/>
+      <c r="Q134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE134" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AF134" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG134" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM134" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AN134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO134" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="135" hidden="true">
+      <c r="A135" t="s" s="2">
+        <v>822</v>
+      </c>
+      <c r="B135" s="2"/>
+      <c r="C135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D135" s="2"/>
+      <c r="E135" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="F135" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H135" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="I135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J135" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="K135" t="s" s="2">
+        <v>823</v>
+      </c>
+      <c r="L135" t="s" s="2">
+        <v>824</v>
+      </c>
+      <c r="M135" t="s" s="2">
+        <v>825</v>
+      </c>
+      <c r="N135" s="2"/>
+      <c r="O135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P135" s="2"/>
+      <c r="Q135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE135" t="s" s="2">
+        <v>822</v>
+      </c>
+      <c r="AF135" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AG135" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL135" t="s" s="2">
+        <v>817</v>
+      </c>
+      <c r="AM135" t="s" s="2">
+        <v>826</v>
+      </c>
+      <c r="AN135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO135" t="s" s="2">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="136" hidden="true">
+      <c r="A136" t="s" s="2">
+        <v>828</v>
+      </c>
+      <c r="B136" s="2"/>
+      <c r="C136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D136" s="2"/>
+      <c r="E136" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F136" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J136" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="K136" t="s" s="2">
+        <v>829</v>
+      </c>
+      <c r="L136" t="s" s="2">
+        <v>830</v>
+      </c>
+      <c r="M136" s="2"/>
+      <c r="N136" s="2"/>
+      <c r="O136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P136" s="2"/>
+      <c r="Q136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W136" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="X136" t="s" s="2">
+        <v>831</v>
+      </c>
+      <c r="Y136" t="s" s="2">
+        <v>832</v>
+      </c>
+      <c r="Z136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE136" t="s" s="2">
+        <v>828</v>
+      </c>
+      <c r="AF136" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG136" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL136" t="s" s="2">
+        <v>833</v>
+      </c>
+      <c r="AM136" t="s" s="2">
+        <v>834</v>
+      </c>
+      <c r="AN136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO136" t="s" s="2">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="137" hidden="true">
+      <c r="A137" t="s" s="2">
+        <v>836</v>
+      </c>
+      <c r="B137" s="2"/>
+      <c r="C137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D137" s="2"/>
+      <c r="E137" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F137" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J137" t="s" s="2">
+        <v>837</v>
+      </c>
+      <c r="K137" t="s" s="2">
+        <v>838</v>
+      </c>
+      <c r="L137" t="s" s="2">
+        <v>839</v>
+      </c>
+      <c r="M137" s="2"/>
+      <c r="N137" s="2"/>
+      <c r="O137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P137" s="2"/>
+      <c r="Q137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE137" t="s" s="2">
+        <v>836</v>
+      </c>
+      <c r="AF137" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG137" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK137" t="s" s="2">
+        <v>840</v>
+      </c>
+      <c r="AL137" t="s" s="2">
+        <v>833</v>
+      </c>
+      <c r="AM137" t="s" s="2">
+        <v>841</v>
+      </c>
+      <c r="AN137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO137" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="138" hidden="true">
+      <c r="A138" t="s" s="2">
+        <v>842</v>
+      </c>
+      <c r="B138" s="2"/>
+      <c r="C138" t="s" s="2">
+        <v>843</v>
+      </c>
+      <c r="D138" s="2"/>
+      <c r="E138" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F138" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J138" t="s" s="2">
+        <v>844</v>
+      </c>
+      <c r="K138" t="s" s="2">
+        <v>845</v>
+      </c>
+      <c r="L138" t="s" s="2">
+        <v>846</v>
+      </c>
+      <c r="M138" s="2"/>
+      <c r="N138" s="2"/>
+      <c r="O138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P138" s="2"/>
+      <c r="Q138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE138" t="s" s="2">
+        <v>842</v>
+      </c>
+      <c r="AF138" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG138" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM138" t="s" s="2">
+        <v>847</v>
+      </c>
+      <c r="AN138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO138" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="139" hidden="true">
+      <c r="A139" t="s" s="2">
+        <v>848</v>
+      </c>
+      <c r="B139" s="2"/>
+      <c r="C139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D139" s="2"/>
+      <c r="E139" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F139" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J139" t="s" s="2">
+        <v>849</v>
+      </c>
+      <c r="K139" t="s" s="2">
+        <v>850</v>
+      </c>
+      <c r="L139" t="s" s="2">
+        <v>851</v>
+      </c>
+      <c r="M139" t="s" s="2">
+        <v>852</v>
+      </c>
+      <c r="N139" s="2"/>
+      <c r="O139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P139" s="2"/>
+      <c r="Q139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE139" t="s" s="2">
+        <v>848</v>
+      </c>
+      <c r="AF139" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG139" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK139" t="s" s="2">
+        <v>853</v>
+      </c>
+      <c r="AL139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM139" t="s" s="2">
+        <v>854</v>
+      </c>
+      <c r="AN139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO139" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO126">
+  <autoFilter ref="A1:AO139">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -17469,7 +19159,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI125">
+  <conditionalFormatting sqref="A2:AI138">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VAUnfinishedInpatientMedicationRequest.xlsx
+++ b/docs/StructureDefinition-VAUnfinishedInpatientMedicationRequest.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$155</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$157</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5755" uniqueCount="913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5833" uniqueCount="928">
   <si>
     <t>Path</t>
   </si>
@@ -1047,6 +1047,10 @@
   </si>
   <si>
     <t>MedicationRequest.medication[x]</t>
+  </si>
+  <si>
+    <t>CodeableConcept
+Reference</t>
   </si>
   <si>
     <t>Medication to be taken</t>
@@ -1283,6 +1287,25 @@
     <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
+    <t>medicationReference</t>
+  </si>
+  <si>
+    <t>ADDITIVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/VAUnfinishedInpatientMedication)
+</t>
+  </si>
+  <si>
+    <t>additive</t>
+  </si>
+  <si>
+    <t>The additive selected as part of the IV order.  This entry is a pointer  to the ADDITIVES file (52.6).</t>
+  </si>
+  <si>
+    <t>NON-VERIFIED ORDERS @ADDITIVE 53.157-.01</t>
+  </si>
+  <si>
     <t>MedicationRequest.subject</t>
   </si>
   <si>
@@ -1624,6 +1647,25 @@
     <t>MedicationRequest.dosageInstruction.extension</t>
   </si>
   <si>
+    <t>dosageInstruction-ivBottleNumber</t>
+  </si>
+  <si>
+    <t>BOTTLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/dosageInstruction-ivBottleNumber}
+</t>
+  </si>
+  <si>
+    <t>bottle</t>
+  </si>
+  <si>
+    <t>This is the bottle number (or numbers, separated by commas) in which  this additive will be included for this IV order. If this field is blank,  it means that the additive will be included in all bottles.</t>
+  </si>
+  <si>
+    <t>NON-VERIFIED ORDERS @BOTTLE 53.157-2</t>
+  </si>
+  <si>
     <t>MedicationRequest.dosageInstruction.sequence</t>
   </si>
   <si>
@@ -2715,10 +2757,16 @@
     <t>MedicationRequest.dispenseRequest.performer</t>
   </si>
   <si>
-    <t>Intended dispenser</t>
-  </si>
-  <si>
-    <t>Indicates the intended dispensing Organization specified by the prescriber.</t>
+    <t>CLINIC</t>
+  </si>
+  <si>
+    <t>clinic</t>
+  </si>
+  <si>
+    <t>Entry must be a clinic.  Depending on the condition, INACTIVATE and REACTIVATE dates may exist.</t>
+  </si>
+  <si>
+    <t>NON-VERIFIED ORDERS @CLINIC 53.1-113</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=SPLY, moodCode=RQO] .participation[typeCode=PRF].role[scoper.determinerCode=INSTANCE]</t>
@@ -2997,7 +3045,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO155"/>
+  <dimension ref="A1:AO157"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -7897,16 +7945,16 @@
         <v>55</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>231</v>
+        <v>328</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7932,26 +7980,26 @@
         <v>45</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AB42" s="2"/>
       <c r="AC42" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AE42" t="s" s="2">
         <v>327</v>
@@ -7972,19 +8020,19 @@
         <v>45</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="43" hidden="true">
@@ -7992,7 +8040,7 @@
         <v>327</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C43" t="s" s="2">
         <v>45</v>
@@ -8017,13 +8065,13 @@
         <v>231</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -8049,13 +8097,13 @@
         <v>45</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>45</v>
@@ -8091,24 +8139,24 @@
         <v>45</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -8223,7 +8271,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -8340,7 +8388,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -8363,19 +8411,19 @@
         <v>55</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>45</v>
@@ -8424,7 +8472,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -8448,18 +8496,18 @@
         <v>45</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -8574,7 +8622,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -8691,7 +8739,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -8717,16 +8765,16 @@
         <v>67</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -8775,7 +8823,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -8799,18 +8847,18 @@
         <v>45</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8836,13 +8884,13 @@
         <v>210</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -8892,7 +8940,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -8916,25 +8964,25 @@
         <v>45</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D51" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E51" t="s" s="2">
         <v>43</v>
@@ -8955,14 +9003,14 @@
         <v>73</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -9011,7 +9059,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -9026,7 +9074,7 @@
         <v>45</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>45</v>
@@ -9035,18 +9083,18 @@
         <v>45</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -9072,14 +9120,14 @@
         <v>210</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>45</v>
@@ -9128,7 +9176,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -9152,18 +9200,18 @@
         <v>45</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -9186,19 +9234,19 @@
         <v>55</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>45</v>
@@ -9247,7 +9295,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -9271,18 +9319,18 @@
         <v>45</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -9308,16 +9356,16 @@
         <v>210</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>45</v>
@@ -9366,7 +9414,7 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
@@ -9390,25 +9438,27 @@
         <v>45</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="B55" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>404</v>
+      </c>
       <c r="C55" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D55" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E55" t="s" s="2">
         <v>54</v>
@@ -9426,16 +9476,16 @@
         <v>55</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>408</v>
+        <v>331</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -9485,7 +9535,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>403</v>
+        <v>327</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>54</v>
@@ -9503,56 +9553,58 @@
         <v>409</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AO55" t="s" s="2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="56" hidden="true">
-      <c r="A56" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>411</v>
+      </c>
       <c r="E56" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>54</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -9602,10 +9654,10 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>54</v>
@@ -9617,27 +9669,27 @@
         <v>45</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>45</v>
+        <v>416</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AN56" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="AL56" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="AM56" t="s" s="2">
+      <c r="AO56" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>423</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -9648,7 +9700,7 @@
         <v>43</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>45</v>
@@ -9660,15 +9712,17 @@
         <v>45</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="L57" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>45</v>
@@ -9717,13 +9771,13 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>45</v>
@@ -9735,55 +9789,53 @@
         <v>45</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>45</v>
+        <v>427</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>45</v>
+        <v>300</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>428</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>45</v>
+        <v>430</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D58" t="s" s="2">
-        <v>430</v>
-      </c>
+      <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -9834,48 +9886,50 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AN58" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="AF58" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AL58" t="s" s="2">
+      <c r="AO58" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="59" hidden="true">
-      <c r="A59" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>437</v>
+      </c>
       <c r="E59" t="s" s="2">
         <v>43</v>
       </c>
@@ -9883,7 +9937,7 @@
         <v>54</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>45</v>
@@ -9892,13 +9946,13 @@
         <v>55</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -9949,7 +10003,7 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
@@ -9961,25 +10015,25 @@
         <v>45</v>
       </c>
       <c r="AI59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="AJ59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK59" t="s" s="2">
+      <c r="AN59" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="AL59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="AN59" t="s" s="2">
+      <c r="AO59" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>45</v>
       </c>
     </row>
     <row r="60" hidden="true">
@@ -10004,16 +10058,16 @@
         <v>45</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>210</v>
+        <v>448</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>211</v>
+        <v>449</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>212</v>
+        <v>450</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -10064,7 +10118,7 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>213</v>
+        <v>447</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -10076,22 +10130,22 @@
         <v>45</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>45</v>
+        <v>451</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>45</v>
+        <v>452</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>214</v>
+        <v>419</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>45</v>
+        <v>453</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>45</v>
@@ -10099,18 +10153,18 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>195</v>
+        <v>45</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>45</v>
@@ -10122,17 +10176,15 @@
         <v>45</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>99</v>
+        <v>210</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>45</v>
@@ -10181,13 +10233,13 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>45</v>
@@ -10216,11 +10268,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>450</v>
+        <v>195</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -10233,19 +10285,19 @@
         <v>45</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J62" t="s" s="2">
         <v>99</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>451</v>
+        <v>217</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>198</v>
@@ -10298,7 +10350,7 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>452</v>
+        <v>219</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
@@ -10322,7 +10374,7 @@
         <v>45</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>97</v>
+        <v>214</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>45</v>
@@ -10331,43 +10383,41 @@
         <v>45</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D63" t="s" s="2">
-        <v>454</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s" s="2">
         <v>55</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>45</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>55</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>455</v>
+        <v>99</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>456</v>
+        <v>196</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>458</v>
+        <v>198</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -10417,13 +10467,13 @@
         <v>45</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>45</v>
@@ -10432,41 +10482,43 @@
         <v>45</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>459</v>
+        <v>45</v>
       </c>
       <c r="AK63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO63" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="64" hidden="true">
-      <c r="A64" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>461</v>
+      </c>
       <c r="E64" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>54</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>45</v>
@@ -10475,18 +10527,18 @@
         <v>55</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>267</v>
+        <v>462</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="L64" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" t="s" s="2">
-        <v>467</v>
-      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>45</v>
       </c>
@@ -10534,37 +10586,37 @@
         <v>45</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>54</v>
       </c>
       <c r="AH64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AL64" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="AI64" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK64" t="s" s="2">
+      <c r="AM64" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="AL64" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM64" t="s" s="2">
+      <c r="AN64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO64" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>45</v>
       </c>
     </row>
     <row r="65" hidden="true">
@@ -10589,19 +10641,21 @@
         <v>45</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J65" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="K65" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="K65" t="s" s="2">
+      <c r="L65" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" s="2"/>
+      <c r="N65" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>45</v>
       </c>
@@ -10658,7 +10712,7 @@
         <v>54</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>45</v>
+        <v>475</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>45</v>
@@ -10667,16 +10721,16 @@
         <v>45</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>45</v>
+        <v>476</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>476</v>
+        <v>45</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>45</v>
@@ -10684,7 +10738,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -10695,7 +10749,7 @@
         <v>43</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>45</v>
@@ -10707,17 +10761,15 @@
         <v>45</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>231</v>
+        <v>479</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>480</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>45</v>
@@ -10742,66 +10794,66 @@
         <v>45</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>331</v>
+        <v>45</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>481</v>
+        <v>45</v>
       </c>
       <c r="Y66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM66" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="Z66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK66" t="s" s="2">
+      <c r="AN66" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="AL66" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>486</v>
-      </c>
       <c r="AO66" t="s" s="2">
-        <v>487</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10824,16 +10876,16 @@
         <v>45</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>489</v>
+        <v>231</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -10859,13 +10911,13 @@
         <v>45</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>45</v>
+        <v>332</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>45</v>
+        <v>488</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>45</v>
+        <v>489</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>45</v>
@@ -10883,7 +10935,7 @@
         <v>45</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
@@ -10901,19 +10953,19 @@
         <v>45</v>
       </c>
       <c r="AK67" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AN67" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="AL67" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="AM67" t="s" s="2">
+      <c r="AO67" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="AO67" t="s" s="2">
-        <v>45</v>
       </c>
     </row>
     <row r="68" hidden="true">
@@ -10949,7 +11001,9 @@
       <c r="L68" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="M68" s="2"/>
+      <c r="M68" t="s" s="2">
+        <v>499</v>
+      </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>45</v>
@@ -11016,16 +11070,16 @@
         <v>45</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>501</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>45</v>
+        <v>493</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>45</v>
@@ -11064,9 +11118,7 @@
       <c r="L69" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="M69" t="s" s="2">
-        <v>506</v>
-      </c>
+      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>45</v>
@@ -11133,10 +11185,10 @@
         <v>45</v>
       </c>
       <c r="AK69" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AL69" t="s" s="2">
         <v>507</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>45</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>508</v>
@@ -11161,7 +11213,7 @@
         <v>43</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>45</v>
@@ -11173,15 +11225,17 @@
         <v>45</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>210</v>
+        <v>510</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>211</v>
+        <v>511</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M70" s="2"/>
+        <v>512</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>513</v>
+      </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>45</v>
@@ -11230,13 +11284,13 @@
         <v>45</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>213</v>
+        <v>509</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>45</v>
@@ -11248,13 +11302,13 @@
         <v>45</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>45</v>
+        <v>514</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>214</v>
+        <v>515</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>45</v>
@@ -11265,18 +11319,18 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>195</v>
+        <v>45</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>45</v>
@@ -11288,17 +11342,15 @@
         <v>45</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>99</v>
+        <v>210</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>45</v>
@@ -11335,25 +11387,25 @@
         <v>45</v>
       </c>
       <c r="AA71" t="s" s="2">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>218</v>
+        <v>45</v>
       </c>
       <c r="AC71" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD71" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>45</v>
@@ -11382,18 +11434,18 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>45</v>
+        <v>195</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>45</v>
@@ -11402,21 +11454,21 @@
         <v>45</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>512</v>
+        <v>99</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>513</v>
+        <v>216</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" t="s" s="2">
-        <v>515</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>45</v>
       </c>
@@ -11452,25 +11504,25 @@
         <v>45</v>
       </c>
       <c r="AA72" t="s" s="2">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>45</v>
+        <v>218</v>
       </c>
       <c r="AC72" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>516</v>
+        <v>219</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>45</v>
@@ -11488,7 +11540,7 @@
         <v>45</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>517</v>
+        <v>214</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>45</v>
@@ -11499,9 +11551,11 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="B73" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
         <v>45</v>
       </c>
@@ -11512,7 +11566,7 @@
         <v>43</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>55</v>
@@ -11521,21 +11575,19 @@
         <v>45</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>210</v>
+        <v>520</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M73" s="2"/>
-      <c r="N73" t="s" s="2">
-        <v>522</v>
-      </c>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>45</v>
       </c>
@@ -11583,23 +11635,23 @@
         <v>45</v>
       </c>
       <c r="AE73" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="AF73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>524</v>
-      </c>
       <c r="AK73" t="s" s="2">
         <v>45</v>
       </c>
@@ -11607,7 +11659,7 @@
         <v>45</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>517</v>
+        <v>97</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>45</v>
@@ -11618,7 +11670,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -11629,7 +11681,7 @@
         <v>43</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>45</v>
@@ -11641,7 +11693,7 @@
         <v>55</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>231</v>
+        <v>525</v>
       </c>
       <c r="K74" t="s" s="2">
         <v>526</v>
@@ -11676,72 +11728,74 @@
         <v>45</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>331</v>
+        <v>45</v>
       </c>
       <c r="X74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE74" t="s" s="2">
         <v>529</v>
       </c>
-      <c r="Y74" t="s" s="2">
+      <c r="AF74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM74" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="Z74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE74" t="s" s="2">
+      <c r="AN74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO74" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
         <v>531</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO74" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>532</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>532</v>
+      </c>
       <c r="E75" t="s" s="2">
         <v>43</v>
       </c>
@@ -11749,7 +11803,7 @@
         <v>54</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>45</v>
@@ -11767,7 +11821,9 @@
         <v>534</v>
       </c>
       <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
+      <c r="N75" t="s" s="2">
+        <v>535</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>45</v>
       </c>
@@ -11815,7 +11871,7 @@
         <v>45</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>43</v>
@@ -11830,7 +11886,7 @@
         <v>45</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>45</v>
+        <v>537</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>45</v>
@@ -11839,7 +11895,7 @@
         <v>45</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>45</v>
@@ -11850,7 +11906,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11861,7 +11917,7 @@
         <v>43</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>45</v>
@@ -11873,17 +11929,15 @@
         <v>55</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>537</v>
+        <v>231</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="M76" t="s" s="2">
         <v>540</v>
       </c>
+      <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
         <v>541</v>
       </c>
@@ -11910,13 +11964,13 @@
         <v>45</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>45</v>
+        <v>332</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>45</v>
+        <v>542</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>45</v>
+        <v>543</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>45</v>
@@ -11934,13 +11988,13 @@
         <v>45</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>45</v>
@@ -11958,7 +12012,7 @@
         <v>45</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>45</v>
@@ -11969,7 +12023,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11989,16 +12043,16 @@
         <v>45</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J77" t="s" s="2">
         <v>210</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>211</v>
+        <v>546</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>212</v>
+        <v>547</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -12049,7 +12103,7 @@
         <v>45</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>213</v>
+        <v>548</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>43</v>
@@ -12073,7 +12127,7 @@
         <v>45</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>214</v>
+        <v>530</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>45</v>
@@ -12084,18 +12138,18 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>195</v>
+        <v>45</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>45</v>
@@ -12104,21 +12158,23 @@
         <v>45</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>99</v>
+        <v>550</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>216</v>
+        <v>551</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>217</v>
+        <v>552</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N78" s="2"/>
+        <v>553</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>554</v>
+      </c>
       <c r="O78" t="s" s="2">
         <v>45</v>
       </c>
@@ -12154,25 +12210,25 @@
         <v>45</v>
       </c>
       <c r="AA78" t="s" s="2">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>218</v>
+        <v>45</v>
       </c>
       <c r="AC78" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD78" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>219</v>
+        <v>555</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>45</v>
@@ -12190,7 +12246,7 @@
         <v>45</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>214</v>
+        <v>556</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>45</v>
@@ -12201,7 +12257,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>546</v>
+        <v>557</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -12212,7 +12268,7 @@
         <v>43</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>45</v>
@@ -12221,21 +12277,19 @@
         <v>45</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>431</v>
+        <v>210</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>547</v>
+        <v>211</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>548</v>
+        <v>212</v>
       </c>
       <c r="M79" s="2"/>
-      <c r="N79" t="s" s="2">
-        <v>549</v>
-      </c>
+      <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>45</v>
       </c>
@@ -12283,13 +12337,13 @@
         <v>45</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>550</v>
+        <v>213</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>45</v>
@@ -12307,7 +12361,7 @@
         <v>45</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>551</v>
+        <v>214</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>45</v>
@@ -12318,18 +12372,18 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>45</v>
+        <v>195</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>45</v>
@@ -12338,21 +12392,21 @@
         <v>45</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>553</v>
+        <v>99</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>554</v>
+        <v>216</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="M80" s="2"/>
-      <c r="N80" t="s" s="2">
-        <v>556</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>45</v>
       </c>
@@ -12388,31 +12442,31 @@
         <v>45</v>
       </c>
       <c r="AA80" t="s" s="2">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>45</v>
+        <v>218</v>
       </c>
       <c r="AC80" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD80" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>557</v>
+        <v>219</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>558</v>
+        <v>45</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>45</v>
@@ -12424,7 +12478,7 @@
         <v>45</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>559</v>
+        <v>214</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>45</v>
@@ -12435,7 +12489,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -12446,7 +12500,7 @@
         <v>43</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>45</v>
@@ -12455,19 +12509,21 @@
         <v>45</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>210</v>
+        <v>438</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>211</v>
+        <v>560</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>212</v>
+        <v>561</v>
       </c>
       <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
+      <c r="N81" t="s" s="2">
+        <v>562</v>
+      </c>
       <c r="O81" t="s" s="2">
         <v>45</v>
       </c>
@@ -12515,13 +12571,13 @@
         <v>45</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>213</v>
+        <v>563</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>45</v>
@@ -12539,7 +12595,7 @@
         <v>45</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>214</v>
+        <v>564</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>45</v>
@@ -12550,18 +12606,18 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>195</v>
+        <v>45</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>45</v>
@@ -12570,21 +12626,21 @@
         <v>45</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>99</v>
+        <v>566</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>216</v>
+        <v>567</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N82" s="2"/>
+        <v>568</v>
+      </c>
+      <c r="M82" s="2"/>
+      <c r="N82" t="s" s="2">
+        <v>569</v>
+      </c>
       <c r="O82" t="s" s="2">
         <v>45</v>
       </c>
@@ -12620,31 +12676,31 @@
         <v>45</v>
       </c>
       <c r="AA82" t="s" s="2">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>218</v>
+        <v>45</v>
       </c>
       <c r="AC82" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD82" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>219</v>
+        <v>570</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>45</v>
+        <v>571</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>45</v>
@@ -12656,7 +12712,7 @@
         <v>45</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>214</v>
+        <v>572</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>45</v>
@@ -12665,27 +12721,23 @@
         <v>45</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>562</v>
-      </c>
+        <v>573</v>
+      </c>
+      <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D83" t="s" s="2">
-        <v>563</v>
-      </c>
+      <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>45</v>
@@ -12694,13 +12746,13 @@
         <v>45</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>564</v>
+        <v>210</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>565</v>
+        <v>211</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>566</v>
+        <v>212</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -12751,13 +12803,13 @@
         <v>45</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>45</v>
@@ -12766,7 +12818,7 @@
         <v>45</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>567</v>
+        <v>45</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>45</v>
@@ -12775,7 +12827,7 @@
         <v>45</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>97</v>
+        <v>214</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>45</v>
@@ -12786,18 +12838,18 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>45</v>
+        <v>195</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>45</v>
@@ -12806,18 +12858,20 @@
         <v>45</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>260</v>
+        <v>99</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>569</v>
+        <v>216</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="M84" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>45</v>
@@ -12854,23 +12908,25 @@
         <v>45</v>
       </c>
       <c r="AA84" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AB84" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="AC84" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD84" t="s" s="2">
-        <v>335</v>
+        <v>103</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>571</v>
+        <v>219</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>45</v>
@@ -12888,7 +12944,7 @@
         <v>45</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>572</v>
+        <v>214</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>45</v>
@@ -12897,40 +12953,42 @@
         <v>45</v>
       </c>
     </row>
-    <row r="85" hidden="true">
+    <row r="85">
       <c r="A85" t="s" s="2">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C85" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>576</v>
+      </c>
       <c r="E85" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>260</v>
+        <v>577</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -12981,13 +13039,13 @@
         <v>45</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>571</v>
+        <v>219</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>45</v>
@@ -12996,7 +13054,7 @@
         <v>45</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>45</v>
+        <v>580</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>45</v>
@@ -13005,7 +13063,7 @@
         <v>45</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>572</v>
+        <v>97</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>45</v>
@@ -13016,7 +13074,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -13036,16 +13094,16 @@
         <v>45</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>211</v>
+        <v>582</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>212</v>
+        <v>583</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -13084,19 +13142,17 @@
         <v>45</v>
       </c>
       <c r="AA86" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="AB86" s="2"/>
       <c r="AC86" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD86" t="s" s="2">
-        <v>45</v>
+        <v>336</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>213</v>
+        <v>584</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>43</v>
@@ -13120,7 +13176,7 @@
         <v>45</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>214</v>
+        <v>585</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>45</v>
@@ -13131,18 +13187,20 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="B87" s="2"/>
+        <v>581</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>586</v>
+      </c>
       <c r="C87" t="s" s="2">
-        <v>195</v>
+        <v>45</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>45</v>
@@ -13151,20 +13209,18 @@
         <v>45</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>99</v>
+        <v>260</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>216</v>
+        <v>582</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>583</v>
+      </c>
+      <c r="M87" s="2"/>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>45</v>
@@ -13201,25 +13257,25 @@
         <v>45</v>
       </c>
       <c r="AA87" t="s" s="2">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>218</v>
+        <v>45</v>
       </c>
       <c r="AC87" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD87" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>219</v>
+        <v>584</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>45</v>
@@ -13237,7 +13293,7 @@
         <v>45</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>214</v>
+        <v>585</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>45</v>
@@ -13246,17 +13302,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D88" t="s" s="2">
-        <v>577</v>
-      </c>
+      <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
         <v>43</v>
       </c>
@@ -13264,26 +13318,24 @@
         <v>54</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>431</v>
+        <v>210</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>578</v>
+        <v>211</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>580</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="M88" s="2"/>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>45</v>
@@ -13332,7 +13384,7 @@
         <v>45</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>581</v>
+        <v>213</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>43</v>
@@ -13341,13 +13393,13 @@
         <v>54</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>582</v>
+        <v>45</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>583</v>
+        <v>45</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>45</v>
@@ -13356,60 +13408,56 @@
         <v>45</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>584</v>
+        <v>214</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>585</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D89" t="s" s="2">
-        <v>587</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>431</v>
+        <v>99</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>588</v>
+        <v>216</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>589</v>
+        <v>217</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>590</v>
+        <v>198</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="P89" t="s" s="2">
-        <v>591</v>
-      </c>
+      <c r="P89" s="2"/>
       <c r="Q89" t="s" s="2">
         <v>45</v>
       </c>
@@ -13441,34 +13489,34 @@
         <v>45</v>
       </c>
       <c r="AA89" t="s" s="2">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>45</v>
+        <v>218</v>
       </c>
       <c r="AC89" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD89" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>592</v>
+        <v>219</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>582</v>
+        <v>45</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>593</v>
+        <v>45</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>45</v>
@@ -13477,24 +13525,26 @@
         <v>45</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>594</v>
+        <v>214</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>595</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="90" hidden="true">
+    <row r="90">
       <c r="A90" t="s" s="2">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>590</v>
+      </c>
       <c r="E90" t="s" s="2">
         <v>43</v>
       </c>
@@ -13502,7 +13552,7 @@
         <v>54</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>45</v>
@@ -13511,20 +13561,18 @@
         <v>55</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>512</v>
+        <v>438</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>600</v>
-      </c>
+        <v>593</v>
+      </c>
+      <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>45</v>
       </c>
@@ -13572,7 +13620,7 @@
         <v>45</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>43</v>
@@ -13581,13 +13629,13 @@
         <v>54</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>45</v>
+        <v>595</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>45</v>
+        <v>596</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>45</v>
@@ -13596,24 +13644,26 @@
         <v>45</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>45</v>
+        <v>598</v>
       </c>
     </row>
-    <row r="91" hidden="true">
+    <row r="91">
       <c r="A91" t="s" s="2">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D91" s="2"/>
+      <c r="D91" t="s" s="2">
+        <v>600</v>
+      </c>
       <c r="E91" t="s" s="2">
         <v>43</v>
       </c>
@@ -13621,7 +13671,7 @@
         <v>54</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>45</v>
@@ -13630,20 +13680,24 @@
         <v>55</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>512</v>
+        <v>438</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="M91" s="2"/>
+        <v>602</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>603</v>
+      </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="P91" s="2"/>
+      <c r="P91" t="s" s="2">
+        <v>604</v>
+      </c>
       <c r="Q91" t="s" s="2">
         <v>45</v>
       </c>
@@ -13687,7 +13741,7 @@
         <v>45</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>43</v>
@@ -13696,13 +13750,13 @@
         <v>54</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>45</v>
+        <v>595</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>45</v>
+        <v>606</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>45</v>
@@ -13711,26 +13765,24 @@
         <v>45</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>45</v>
+        <v>608</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D92" t="s" s="2">
-        <v>608</v>
-      </c>
+      <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
         <v>43</v>
       </c>
@@ -13738,7 +13790,7 @@
         <v>54</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>45</v>
@@ -13747,7 +13799,7 @@
         <v>55</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>609</v>
+        <v>525</v>
       </c>
       <c r="K92" t="s" s="2">
         <v>610</v>
@@ -13823,16 +13875,16 @@
         <v>45</v>
       </c>
       <c r="AJ92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM92" t="s" s="2">
         <v>615</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>616</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>45</v>
@@ -13843,7 +13895,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13866,20 +13918,16 @@
         <v>55</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>609</v>
+        <v>525</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>618</v>
       </c>
-      <c r="L93" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>613</v>
-      </c>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>45</v>
       </c>
@@ -13927,7 +13975,7 @@
         <v>45</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>43</v>
@@ -13951,7 +13999,7 @@
         <v>45</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>45</v>
@@ -13962,13 +14010,15 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D94" s="2"/>
+      <c r="D94" t="s" s="2">
+        <v>621</v>
+      </c>
       <c r="E94" t="s" s="2">
         <v>43</v>
       </c>
@@ -13985,22 +14035,26 @@
         <v>55</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>73</v>
+        <v>622</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
+        <v>624</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>626</v>
+      </c>
       <c r="O94" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P94" s="2"/>
       <c r="Q94" t="s" s="2">
-        <v>624</v>
+        <v>45</v>
       </c>
       <c r="R94" t="s" s="2">
         <v>45</v>
@@ -14018,13 +14072,13 @@
         <v>45</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>625</v>
+        <v>45</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>626</v>
+        <v>45</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>45</v>
@@ -14057,7 +14111,7 @@
         <v>45</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>45</v>
+        <v>628</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>45</v>
@@ -14066,7 +14120,7 @@
         <v>45</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>45</v>
@@ -14075,9 +14129,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -14091,7 +14145,7 @@
         <v>54</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>45</v>
@@ -14100,22 +14154,26 @@
         <v>55</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>512</v>
+        <v>622</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
+        <v>632</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>626</v>
+      </c>
       <c r="O95" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="P95" s="2"/>
       <c r="Q95" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="R95" t="s" s="2">
         <v>45</v>
@@ -14157,7 +14215,7 @@
         <v>45</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>43</v>
@@ -14181,7 +14239,7 @@
         <v>45</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>616</v>
+        <v>629</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>45</v>
@@ -14190,9 +14248,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="96" hidden="true">
+    <row r="96">
       <c r="A96" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -14206,7 +14264,7 @@
         <v>54</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>45</v>
@@ -14215,13 +14273,13 @@
         <v>55</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>512</v>
+        <v>73</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -14230,7 +14288,7 @@
       </c>
       <c r="P96" s="2"/>
       <c r="Q96" t="s" s="2">
-        <v>45</v>
+        <v>637</v>
       </c>
       <c r="R96" t="s" s="2">
         <v>45</v>
@@ -14248,13 +14306,13 @@
         <v>45</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>45</v>
+        <v>225</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>45</v>
+        <v>638</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>45</v>
+        <v>639</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>45</v>
@@ -14272,7 +14330,7 @@
         <v>45</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>43</v>
@@ -14296,7 +14354,7 @@
         <v>45</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>616</v>
+        <v>641</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>45</v>
@@ -14305,9 +14363,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="97" hidden="true">
+    <row r="97">
       <c r="A97" t="s" s="2">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -14321,7 +14379,7 @@
         <v>54</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>45</v>
@@ -14330,22 +14388,22 @@
         <v>55</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>609</v>
+        <v>525</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>630</v>
+        <v>643</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="P97" s="2"/>
       <c r="Q97" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="R97" t="s" s="2">
         <v>45</v>
@@ -14387,7 +14445,7 @@
         <v>45</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>43</v>
@@ -14411,7 +14469,7 @@
         <v>45</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>616</v>
+        <v>629</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>45</v>
@@ -14422,7 +14480,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -14445,13 +14503,13 @@
         <v>55</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>609</v>
+        <v>525</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -14502,7 +14560,7 @@
         <v>45</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>43</v>
@@ -14526,7 +14584,7 @@
         <v>45</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>616</v>
+        <v>629</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>45</v>
@@ -14535,9 +14593,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -14551,7 +14609,7 @@
         <v>54</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>45</v>
@@ -14560,13 +14618,13 @@
         <v>55</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>73</v>
+        <v>622</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>622</v>
+        <v>643</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -14575,7 +14633,7 @@
       </c>
       <c r="P99" s="2"/>
       <c r="Q99" t="s" s="2">
-        <v>646</v>
+        <v>45</v>
       </c>
       <c r="R99" t="s" s="2">
         <v>45</v>
@@ -14593,13 +14651,13 @@
         <v>45</v>
       </c>
       <c r="W99" t="s" s="2">
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>625</v>
+        <v>45</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>626</v>
+        <v>45</v>
       </c>
       <c r="Z99" t="s" s="2">
         <v>45</v>
@@ -14617,7 +14675,7 @@
         <v>45</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>43</v>
@@ -14641,7 +14699,7 @@
         <v>45</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>45</v>
@@ -14652,7 +14710,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -14663,7 +14721,7 @@
         <v>43</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>45</v>
@@ -14675,17 +14733,15 @@
         <v>55</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>73</v>
+        <v>622</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>651</v>
-      </c>
+        <v>655</v>
+      </c>
+      <c r="M100" s="2"/>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
         <v>45</v>
@@ -14710,11 +14766,13 @@
         <v>45</v>
       </c>
       <c r="W100" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="X100" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y100" t="s" s="2">
-        <v>652</v>
+        <v>45</v>
       </c>
       <c r="Z100" t="s" s="2">
         <v>45</v>
@@ -14732,13 +14790,13 @@
         <v>45</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>45</v>
@@ -14756,7 +14814,7 @@
         <v>45</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>214</v>
+        <v>629</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>45</v>
@@ -14765,9 +14823,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="101" hidden="true">
+    <row r="101">
       <c r="A101" t="s" s="2">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14778,10 +14836,10 @@
         <v>43</v>
       </c>
       <c r="F101" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>45</v>
@@ -14790,24 +14848,22 @@
         <v>55</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>655</v>
+        <v>73</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>656</v>
+        <v>635</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="M101" t="s" s="2">
         <v>658</v>
       </c>
+      <c r="M101" s="2"/>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P101" s="2"/>
       <c r="Q101" t="s" s="2">
-        <v>45</v>
+        <v>659</v>
       </c>
       <c r="R101" t="s" s="2">
         <v>45</v>
@@ -14825,13 +14881,13 @@
         <v>45</v>
       </c>
       <c r="W101" t="s" s="2">
-        <v>45</v>
+        <v>225</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>45</v>
+        <v>638</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>45</v>
+        <v>639</v>
       </c>
       <c r="Z101" t="s" s="2">
         <v>45</v>
@@ -14849,13 +14905,13 @@
         <v>45</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>45</v>
@@ -14873,7 +14929,7 @@
         <v>45</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>214</v>
+        <v>641</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>45</v>
@@ -14884,7 +14940,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14910,17 +14966,15 @@
         <v>73</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="N102" t="s" s="2">
         <v>664</v>
       </c>
+      <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
         <v>45</v>
       </c>
@@ -14946,29 +15000,27 @@
       <c r="W102" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="X102" t="s" s="2">
+      <c r="X102" s="2"/>
+      <c r="Y102" t="s" s="2">
         <v>665</v>
       </c>
-      <c r="Y102" t="s" s="2">
+      <c r="Z102" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE102" t="s" s="2">
         <v>666</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>667</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>43</v>
@@ -14992,7 +15044,7 @@
         <v>45</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>668</v>
+        <v>214</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>45</v>
@@ -15003,7 +15055,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -15014,7 +15066,7 @@
         <v>43</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>45</v>
@@ -15026,15 +15078,17 @@
         <v>55</v>
       </c>
       <c r="J103" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="L103" t="s" s="2">
         <v>670</v>
       </c>
-      <c r="K103" t="s" s="2">
+      <c r="M103" t="s" s="2">
         <v>671</v>
       </c>
-      <c r="L103" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="M103" s="2"/>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
         <v>45</v>
@@ -15083,13 +15137,13 @@
         <v>45</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>45</v>
@@ -15107,7 +15161,7 @@
         <v>45</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>674</v>
+        <v>214</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>45</v>
@@ -15118,7 +15172,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -15129,7 +15183,7 @@
         <v>43</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>45</v>
@@ -15141,18 +15195,20 @@
         <v>55</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>231</v>
+        <v>73</v>
       </c>
       <c r="K104" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="M104" t="s" s="2">
         <v>676</v>
       </c>
-      <c r="L104" t="s" s="2">
+      <c r="N104" t="s" s="2">
         <v>677</v>
       </c>
-      <c r="M104" t="s" s="2">
-        <v>678</v>
-      </c>
-      <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
         <v>45</v>
       </c>
@@ -15176,55 +15232,55 @@
         <v>45</v>
       </c>
       <c r="W104" t="s" s="2">
-        <v>296</v>
+        <v>225</v>
       </c>
       <c r="X104" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="Y104" t="s" s="2">
         <v>679</v>
       </c>
-      <c r="Y104" t="s" s="2">
+      <c r="Z104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE104" t="s" s="2">
         <v>680</v>
       </c>
-      <c r="Z104" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE104" t="s" s="2">
+      <c r="AF104" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM104" t="s" s="2">
         <v>681</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG104" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AH104" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK104" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>682</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>45</v>
@@ -15235,7 +15291,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -15255,16 +15311,16 @@
         <v>45</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>210</v>
+        <v>683</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>211</v>
+        <v>684</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>212</v>
+        <v>685</v>
       </c>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
@@ -15315,7 +15371,7 @@
         <v>45</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>213</v>
+        <v>686</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>43</v>
@@ -15339,7 +15395,7 @@
         <v>45</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>214</v>
+        <v>687</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>45</v>
@@ -15350,18 +15406,18 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
-        <v>195</v>
+        <v>45</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>45</v>
@@ -15370,19 +15426,19 @@
         <v>45</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>99</v>
+        <v>231</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>216</v>
+        <v>689</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>217</v>
+        <v>690</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>198</v>
+        <v>691</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
@@ -15408,37 +15464,37 @@
         <v>45</v>
       </c>
       <c r="W106" t="s" s="2">
-        <v>45</v>
+        <v>296</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>45</v>
+        <v>692</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>45</v>
+        <v>693</v>
       </c>
       <c r="Z106" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA106" t="s" s="2">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="AB106" t="s" s="2">
-        <v>218</v>
+        <v>45</v>
       </c>
       <c r="AC106" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD106" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>219</v>
+        <v>694</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>45</v>
@@ -15456,7 +15512,7 @@
         <v>45</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>214</v>
+        <v>695</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>45</v>
@@ -15467,7 +15523,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>685</v>
+        <v>696</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -15478,7 +15534,7 @@
         <v>43</v>
       </c>
       <c r="F107" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>45</v>
@@ -15487,23 +15543,19 @@
         <v>45</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>345</v>
+        <v>210</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>346</v>
+        <v>211</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="M107" s="2"/>
+      <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
         <v>45</v>
       </c>
@@ -15551,13 +15603,13 @@
         <v>45</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>350</v>
+        <v>213</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>45</v>
@@ -15575,56 +15627,52 @@
         <v>45</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>351</v>
+        <v>214</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO107" t="s" s="2">
-        <v>352</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>686</v>
+        <v>697</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D108" t="s" s="2">
-        <v>687</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F108" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I108" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>210</v>
+        <v>99</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>688</v>
+        <v>216</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>689</v>
+        <v>217</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>399</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
         <v>45</v>
       </c>
@@ -15660,25 +15708,25 @@
         <v>45</v>
       </c>
       <c r="AA108" t="s" s="2">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="AB108" t="s" s="2">
-        <v>45</v>
+        <v>218</v>
       </c>
       <c r="AC108" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD108" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>400</v>
+        <v>219</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>45</v>
@@ -15687,7 +15735,7 @@
         <v>45</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>690</v>
+        <v>45</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>45</v>
@@ -15696,18 +15744,18 @@
         <v>45</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>401</v>
+        <v>214</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO108" t="s" s="2">
-        <v>402</v>
+        <v>45</v>
       </c>
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>691</v>
+        <v>698</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -15718,7 +15766,7 @@
         <v>43</v>
       </c>
       <c r="F109" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>45</v>
@@ -15730,18 +15778,20 @@
         <v>55</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>692</v>
+        <v>346</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>693</v>
+        <v>347</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>694</v>
+        <v>348</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="N109" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="O109" t="s" s="2">
         <v>45</v>
       </c>
@@ -15765,13 +15815,13 @@
         <v>45</v>
       </c>
       <c r="W109" t="s" s="2">
-        <v>331</v>
+        <v>45</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>696</v>
+        <v>45</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>697</v>
+        <v>45</v>
       </c>
       <c r="Z109" t="s" s="2">
         <v>45</v>
@@ -15789,13 +15839,13 @@
         <v>45</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>698</v>
+        <v>351</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>45</v>
@@ -15813,24 +15863,26 @@
         <v>45</v>
       </c>
       <c r="AM109" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AN109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO109" t="s" s="2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="2">
         <v>699</v>
-      </c>
-      <c r="AN109" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO109" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="110" hidden="true">
-      <c r="A110" t="s" s="2">
-        <v>700</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D110" s="2"/>
+      <c r="D110" t="s" s="2">
+        <v>700</v>
+      </c>
       <c r="E110" t="s" s="2">
         <v>43</v>
       </c>
@@ -15838,7 +15890,7 @@
         <v>54</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>45</v>
@@ -15847,7 +15899,7 @@
         <v>55</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="K110" t="s" s="2">
         <v>701</v>
@@ -15856,10 +15908,10 @@
         <v>702</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>703</v>
+        <v>399</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>704</v>
+        <v>400</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>45</v>
@@ -15884,13 +15936,13 @@
         <v>45</v>
       </c>
       <c r="W110" t="s" s="2">
-        <v>331</v>
+        <v>45</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>705</v>
+        <v>45</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>706</v>
+        <v>45</v>
       </c>
       <c r="Z110" t="s" s="2">
         <v>45</v>
@@ -15908,7 +15960,7 @@
         <v>45</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>707</v>
+        <v>401</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>43</v>
@@ -15923,7 +15975,7 @@
         <v>45</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>45</v>
+        <v>703</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>45</v>
@@ -15932,18 +15984,18 @@
         <v>45</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>708</v>
+        <v>402</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO110" t="s" s="2">
-        <v>45</v>
+        <v>403</v>
       </c>
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15966,18 +16018,18 @@
         <v>55</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>231</v>
+        <v>705</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>711</v>
-      </c>
-      <c r="M111" s="2"/>
-      <c r="N111" t="s" s="2">
-        <v>712</v>
-      </c>
+        <v>707</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>708</v>
+      </c>
+      <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
         <v>45</v>
       </c>
@@ -16001,13 +16053,13 @@
         <v>45</v>
       </c>
       <c r="W111" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="Z111" t="s" s="2">
         <v>45</v>
@@ -16025,7 +16077,7 @@
         <v>45</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>43</v>
@@ -16049,7 +16101,7 @@
         <v>45</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>45</v>
@@ -16060,7 +16112,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -16080,19 +16132,23 @@
         <v>45</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>211</v>
+        <v>714</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M112" s="2"/>
-      <c r="N112" s="2"/>
+        <v>715</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>717</v>
+      </c>
       <c r="O112" t="s" s="2">
         <v>45</v>
       </c>
@@ -16116,13 +16172,13 @@
         <v>45</v>
       </c>
       <c r="W112" t="s" s="2">
-        <v>45</v>
+        <v>332</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>45</v>
+        <v>718</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>45</v>
+        <v>719</v>
       </c>
       <c r="Z112" t="s" s="2">
         <v>45</v>
@@ -16140,7 +16196,7 @@
         <v>45</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>213</v>
+        <v>720</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>43</v>
@@ -16164,7 +16220,7 @@
         <v>45</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>214</v>
+        <v>721</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>45</v>
@@ -16175,18 +16231,18 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
-        <v>195</v>
+        <v>45</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>45</v>
@@ -16195,21 +16251,21 @@
         <v>45</v>
       </c>
       <c r="I113" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>99</v>
+        <v>231</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>216</v>
+        <v>723</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N113" s="2"/>
+        <v>724</v>
+      </c>
+      <c r="M113" s="2"/>
+      <c r="N113" t="s" s="2">
+        <v>725</v>
+      </c>
       <c r="O113" t="s" s="2">
         <v>45</v>
       </c>
@@ -16233,37 +16289,37 @@
         <v>45</v>
       </c>
       <c r="W113" t="s" s="2">
-        <v>45</v>
+        <v>332</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>45</v>
+        <v>726</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>45</v>
+        <v>727</v>
       </c>
       <c r="Z113" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA113" t="s" s="2">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="AB113" t="s" s="2">
-        <v>218</v>
+        <v>45</v>
       </c>
       <c r="AC113" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD113" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>219</v>
+        <v>728</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>45</v>
@@ -16281,7 +16337,7 @@
         <v>45</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>214</v>
+        <v>729</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>45</v>
@@ -16292,7 +16348,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>719</v>
+        <v>730</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -16303,7 +16359,7 @@
         <v>43</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>45</v>
@@ -16312,23 +16368,19 @@
         <v>45</v>
       </c>
       <c r="I114" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>345</v>
+        <v>210</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>346</v>
+        <v>211</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="M114" s="2"/>
+      <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
         <v>45</v>
       </c>
@@ -16376,13 +16428,13 @@
         <v>45</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>350</v>
+        <v>213</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>45</v>
@@ -16400,29 +16452,29 @@
         <v>45</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>351</v>
+        <v>214</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO114" t="s" s="2">
-        <v>352</v>
+        <v>45</v>
       </c>
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>720</v>
+        <v>731</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
-        <v>45</v>
+        <v>195</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F115" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G115" t="s" s="2">
         <v>45</v>
@@ -16434,15 +16486,17 @@
         <v>45</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>210</v>
+        <v>99</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M115" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
         <v>45</v>
@@ -16479,25 +16533,25 @@
         <v>45</v>
       </c>
       <c r="AA115" t="s" s="2">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="AB115" t="s" s="2">
-        <v>45</v>
+        <v>218</v>
       </c>
       <c r="AC115" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD115" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>45</v>
@@ -16526,11 +16580,11 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>721</v>
+        <v>732</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
-        <v>195</v>
+        <v>45</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
@@ -16546,21 +16600,23 @@
         <v>45</v>
       </c>
       <c r="I116" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>99</v>
+        <v>346</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>216</v>
+        <v>347</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>217</v>
+        <v>348</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N116" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="N116" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="O116" t="s" s="2">
         <v>45</v>
       </c>
@@ -16596,19 +16652,19 @@
         <v>45</v>
       </c>
       <c r="AA116" t="s" s="2">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="AB116" t="s" s="2">
-        <v>218</v>
+        <v>45</v>
       </c>
       <c r="AC116" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD116" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>219</v>
+        <v>351</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>43</v>
@@ -16632,18 +16688,18 @@
         <v>45</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>214</v>
+        <v>352</v>
       </c>
       <c r="AN116" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO116" t="s" s="2">
-        <v>45</v>
+        <v>353</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>722</v>
+        <v>733</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -16657,35 +16713,31 @@
         <v>54</v>
       </c>
       <c r="G117" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H117" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I117" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>67</v>
+        <v>210</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>356</v>
+        <v>211</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N117" t="s" s="2">
-        <v>359</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="M117" s="2"/>
+      <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P117" s="2"/>
       <c r="Q117" t="s" s="2">
-        <v>723</v>
+        <v>45</v>
       </c>
       <c r="R117" t="s" s="2">
         <v>45</v>
@@ -16727,7 +16779,7 @@
         <v>45</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>360</v>
+        <v>213</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>43</v>
@@ -16751,29 +16803,29 @@
         <v>45</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>361</v>
+        <v>214</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO117" t="s" s="2">
-        <v>362</v>
+        <v>45</v>
       </c>
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>724</v>
+        <v>734</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
-        <v>45</v>
+        <v>195</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F118" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G118" t="s" s="2">
         <v>45</v>
@@ -16782,19 +16834,19 @@
         <v>45</v>
       </c>
       <c r="I118" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>210</v>
+        <v>99</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>364</v>
+        <v>216</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>365</v>
+        <v>217</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>366</v>
+        <v>198</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
@@ -16832,25 +16884,25 @@
         <v>45</v>
       </c>
       <c r="AA118" t="s" s="2">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="AB118" t="s" s="2">
-        <v>45</v>
+        <v>218</v>
       </c>
       <c r="AC118" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD118" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>367</v>
+        <v>219</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>45</v>
@@ -16868,26 +16920,24 @@
         <v>45</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>368</v>
+        <v>214</v>
       </c>
       <c r="AN118" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO118" t="s" s="2">
-        <v>369</v>
+        <v>45</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>725</v>
+        <v>735</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D119" t="s" s="2">
-        <v>726</v>
-      </c>
+      <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
         <v>43</v>
       </c>
@@ -16904,24 +16954,26 @@
         <v>55</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>727</v>
+        <v>357</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>728</v>
-      </c>
-      <c r="M119" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="N119" t="s" s="2">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P119" s="2"/>
       <c r="Q119" t="s" s="2">
-        <v>45</v>
+        <v>736</v>
       </c>
       <c r="R119" t="s" s="2">
         <v>45</v>
@@ -16963,7 +17015,7 @@
         <v>45</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>43</v>
@@ -16978,7 +17030,7 @@
         <v>45</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>729</v>
+        <v>45</v>
       </c>
       <c r="AK119" t="s" s="2">
         <v>45</v>
@@ -16987,18 +17039,18 @@
         <v>45</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO119" t="s" s="2">
-        <v>378</v>
+        <v>363</v>
       </c>
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -17024,15 +17076,15 @@
         <v>210</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M120" s="2"/>
-      <c r="N120" t="s" s="2">
-        <v>382</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="M120" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
         <v>45</v>
       </c>
@@ -17080,7 +17132,7 @@
         <v>45</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>43</v>
@@ -17104,24 +17156,26 @@
         <v>45</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="AN120" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO120" t="s" s="2">
-        <v>385</v>
+        <v>370</v>
       </c>
     </row>
-    <row r="121" hidden="true">
+    <row r="121">
       <c r="A121" t="s" s="2">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D121" s="2"/>
+      <c r="D121" t="s" s="2">
+        <v>739</v>
+      </c>
       <c r="E121" t="s" s="2">
         <v>43</v>
       </c>
@@ -17129,7 +17183,7 @@
         <v>54</v>
       </c>
       <c r="G121" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H121" t="s" s="2">
         <v>45</v>
@@ -17138,19 +17192,17 @@
         <v>55</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>387</v>
+        <v>73</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>388</v>
+        <v>740</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="M121" t="s" s="2">
-        <v>390</v>
-      </c>
+        <v>741</v>
+      </c>
+      <c r="M121" s="2"/>
       <c r="N121" t="s" s="2">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>45</v>
@@ -17199,7 +17251,7 @@
         <v>45</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>43</v>
@@ -17214,7 +17266,7 @@
         <v>45</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>45</v>
+        <v>742</v>
       </c>
       <c r="AK121" t="s" s="2">
         <v>45</v>
@@ -17223,18 +17275,18 @@
         <v>45</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="AN121" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO121" t="s" s="2">
-        <v>394</v>
+        <v>379</v>
       </c>
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>732</v>
+        <v>743</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -17260,16 +17312,14 @@
         <v>210</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>398</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="M122" s="2"/>
       <c r="N122" t="s" s="2">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>45</v>
@@ -17318,7 +17368,7 @@
         <v>45</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>43</v>
@@ -17342,18 +17392,18 @@
         <v>45</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO122" t="s" s="2">
-        <v>402</v>
+        <v>386</v>
       </c>
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>733</v>
+        <v>744</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -17376,19 +17426,19 @@
         <v>55</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>231</v>
+        <v>388</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>734</v>
+        <v>389</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>735</v>
+        <v>390</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>736</v>
+        <v>391</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>737</v>
+        <v>392</v>
       </c>
       <c r="O123" t="s" s="2">
         <v>45</v>
@@ -17413,13 +17463,13 @@
         <v>45</v>
       </c>
       <c r="W123" t="s" s="2">
-        <v>331</v>
+        <v>45</v>
       </c>
       <c r="X123" t="s" s="2">
-        <v>738</v>
+        <v>45</v>
       </c>
       <c r="Y123" t="s" s="2">
-        <v>739</v>
+        <v>45</v>
       </c>
       <c r="Z123" t="s" s="2">
         <v>45</v>
@@ -17437,7 +17487,7 @@
         <v>45</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>740</v>
+        <v>393</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>43</v>
@@ -17461,18 +17511,18 @@
         <v>45</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>741</v>
+        <v>394</v>
       </c>
       <c r="AN123" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO123" t="s" s="2">
-        <v>45</v>
+        <v>395</v>
       </c>
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -17495,19 +17545,19 @@
         <v>55</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>743</v>
+        <v>210</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>744</v>
+        <v>397</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>745</v>
+        <v>398</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>746</v>
+        <v>399</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>747</v>
+        <v>400</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>45</v>
@@ -17544,17 +17594,19 @@
         <v>45</v>
       </c>
       <c r="AA124" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AB124" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB124" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC124" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD124" t="s" s="2">
-        <v>335</v>
+        <v>45</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>748</v>
+        <v>401</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>43</v>
@@ -17578,22 +17630,20 @@
         <v>45</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>741</v>
+        <v>402</v>
       </c>
       <c r="AN124" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO124" t="s" s="2">
-        <v>45</v>
+        <v>403</v>
       </c>
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>742</v>
-      </c>
-      <c r="B125" t="s" s="2">
-        <v>749</v>
-      </c>
+        <v>746</v>
+      </c>
+      <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
         <v>45</v>
       </c>
@@ -17614,19 +17664,19 @@
         <v>55</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>743</v>
+        <v>231</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="O125" t="s" s="2">
         <v>45</v>
@@ -17651,13 +17701,13 @@
         <v>45</v>
       </c>
       <c r="W125" t="s" s="2">
-        <v>45</v>
+        <v>332</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>45</v>
+        <v>751</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>45</v>
+        <v>752</v>
       </c>
       <c r="Z125" t="s" s="2">
         <v>45</v>
@@ -17675,7 +17725,7 @@
         <v>45</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>43</v>
@@ -17699,7 +17749,7 @@
         <v>45</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>741</v>
+        <v>754</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>45</v>
@@ -17710,7 +17760,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -17730,19 +17780,23 @@
         <v>45</v>
       </c>
       <c r="I126" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>210</v>
+        <v>756</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>211</v>
+        <v>757</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M126" s="2"/>
-      <c r="N126" s="2"/>
+        <v>758</v>
+      </c>
+      <c r="M126" t="s" s="2">
+        <v>759</v>
+      </c>
+      <c r="N126" t="s" s="2">
+        <v>760</v>
+      </c>
       <c r="O126" t="s" s="2">
         <v>45</v>
       </c>
@@ -17778,19 +17832,17 @@
         <v>45</v>
       </c>
       <c r="AA126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB126" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="AB126" s="2"/>
       <c r="AC126" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD126" t="s" s="2">
-        <v>45</v>
+        <v>336</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>213</v>
+        <v>761</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>43</v>
@@ -17814,7 +17866,7 @@
         <v>45</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>214</v>
+        <v>754</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>45</v>
@@ -17825,18 +17877,20 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>751</v>
-      </c>
-      <c r="B127" s="2"/>
+        <v>755</v>
+      </c>
+      <c r="B127" t="s" s="2">
+        <v>762</v>
+      </c>
       <c r="C127" t="s" s="2">
-        <v>195</v>
+        <v>45</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F127" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G127" t="s" s="2">
         <v>45</v>
@@ -17845,21 +17899,23 @@
         <v>45</v>
       </c>
       <c r="I127" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>99</v>
+        <v>756</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>216</v>
+        <v>757</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>217</v>
+        <v>758</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N127" s="2"/>
+        <v>759</v>
+      </c>
+      <c r="N127" t="s" s="2">
+        <v>760</v>
+      </c>
       <c r="O127" t="s" s="2">
         <v>45</v>
       </c>
@@ -17895,25 +17951,25 @@
         <v>45</v>
       </c>
       <c r="AA127" t="s" s="2">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="AB127" t="s" s="2">
-        <v>218</v>
+        <v>45</v>
       </c>
       <c r="AC127" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD127" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>219</v>
+        <v>761</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>45</v>
@@ -17931,7 +17987,7 @@
         <v>45</v>
       </c>
       <c r="AM127" t="s" s="2">
-        <v>214</v>
+        <v>754</v>
       </c>
       <c r="AN127" t="s" s="2">
         <v>45</v>
@@ -17940,17 +17996,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>752</v>
+        <v>763</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D128" t="s" s="2">
-        <v>753</v>
-      </c>
+      <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
         <v>43</v>
       </c>
@@ -17958,29 +18012,25 @@
         <v>54</v>
       </c>
       <c r="G128" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H128" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I128" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>609</v>
+        <v>210</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>754</v>
+        <v>211</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>755</v>
-      </c>
-      <c r="M128" t="s" s="2">
-        <v>756</v>
-      </c>
-      <c r="N128" t="s" s="2">
-        <v>757</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="M128" s="2"/>
+      <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
         <v>45</v>
       </c>
@@ -18028,7 +18078,7 @@
         <v>45</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>758</v>
+        <v>213</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>43</v>
@@ -18043,7 +18093,7 @@
         <v>45</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>759</v>
+        <v>45</v>
       </c>
       <c r="AK128" t="s" s="2">
         <v>45</v>
@@ -18052,60 +18102,56 @@
         <v>45</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>760</v>
+        <v>214</v>
       </c>
       <c r="AN128" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO128" t="s" s="2">
-        <v>761</v>
+        <v>45</v>
       </c>
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
-        <v>45</v>
+        <v>195</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F129" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G129" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H129" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I129" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>763</v>
+        <v>216</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>764</v>
+        <v>217</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>765</v>
-      </c>
-      <c r="N129" t="s" s="2">
-        <v>766</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="P129" t="s" s="2">
-        <v>767</v>
-      </c>
+      <c r="P129" s="2"/>
       <c r="Q129" t="s" s="2">
         <v>45</v>
       </c>
@@ -18125,37 +18171,37 @@
         <v>45</v>
       </c>
       <c r="W129" t="s" s="2">
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="X129" t="s" s="2">
-        <v>768</v>
+        <v>45</v>
       </c>
       <c r="Y129" t="s" s="2">
-        <v>769</v>
+        <v>45</v>
       </c>
       <c r="Z129" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA129" t="s" s="2">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="AB129" t="s" s="2">
-        <v>45</v>
+        <v>218</v>
       </c>
       <c r="AC129" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD129" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>770</v>
+        <v>219</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>45</v>
@@ -18173,25 +18219,25 @@
         <v>45</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>771</v>
+        <v>214</v>
       </c>
       <c r="AN129" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO129" t="s" s="2">
-        <v>772</v>
+        <v>45</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D130" t="s" s="2">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="E130" t="s" s="2">
         <v>43</v>
@@ -18209,17 +18255,19 @@
         <v>55</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>210</v>
+        <v>622</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>776</v>
-      </c>
-      <c r="M130" s="2"/>
+        <v>768</v>
+      </c>
+      <c r="M130" t="s" s="2">
+        <v>769</v>
+      </c>
       <c r="N130" t="s" s="2">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>45</v>
@@ -18268,7 +18316,7 @@
         <v>45</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>43</v>
@@ -18283,7 +18331,7 @@
         <v>45</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="AK130" t="s" s="2">
         <v>45</v>
@@ -18292,18 +18340,18 @@
         <v>45</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="AN130" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO130" t="s" s="2">
-        <v>781</v>
+        <v>774</v>
       </c>
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -18320,72 +18368,76 @@
         <v>45</v>
       </c>
       <c r="H131" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I131" t="s" s="2">
         <v>55</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="K131" t="s" s="2">
+        <v>776</v>
+      </c>
+      <c r="L131" t="s" s="2">
+        <v>777</v>
+      </c>
+      <c r="M131" t="s" s="2">
+        <v>778</v>
+      </c>
+      <c r="N131" t="s" s="2">
+        <v>779</v>
+      </c>
+      <c r="O131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P131" t="s" s="2">
+        <v>780</v>
+      </c>
+      <c r="Q131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W131" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="X131" t="s" s="2">
+        <v>781</v>
+      </c>
+      <c r="Y131" t="s" s="2">
+        <v>782</v>
+      </c>
+      <c r="Z131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE131" t="s" s="2">
         <v>783</v>
-      </c>
-      <c r="L131" t="s" s="2">
-        <v>784</v>
-      </c>
-      <c r="M131" s="2"/>
-      <c r="N131" t="s" s="2">
-        <v>785</v>
-      </c>
-      <c r="O131" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P131" s="2"/>
-      <c r="Q131" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R131" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S131" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T131" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U131" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V131" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W131" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X131" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y131" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z131" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA131" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB131" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC131" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD131" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE131" t="s" s="2">
-        <v>786</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>43</v>
@@ -18394,7 +18446,7 @@
         <v>54</v>
       </c>
       <c r="AH131" t="s" s="2">
-        <v>787</v>
+        <v>45</v>
       </c>
       <c r="AI131" t="s" s="2">
         <v>45</v>
@@ -18409,24 +18461,26 @@
         <v>45</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="AN131" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO131" t="s" s="2">
-        <v>781</v>
+        <v>785</v>
       </c>
     </row>
-    <row r="132" hidden="true">
+    <row r="132">
       <c r="A132" t="s" s="2">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D132" s="2"/>
+      <c r="D132" t="s" s="2">
+        <v>787</v>
+      </c>
       <c r="E132" t="s" s="2">
         <v>43</v>
       </c>
@@ -18434,7 +18488,7 @@
         <v>54</v>
       </c>
       <c r="G132" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H132" t="s" s="2">
         <v>45</v>
@@ -18443,19 +18497,17 @@
         <v>55</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>73</v>
+        <v>210</v>
       </c>
       <c r="K132" t="s" s="2">
+        <v>788</v>
+      </c>
+      <c r="L132" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="M132" s="2"/>
+      <c r="N132" t="s" s="2">
         <v>790</v>
-      </c>
-      <c r="L132" t="s" s="2">
-        <v>791</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>792</v>
-      </c>
-      <c r="N132" t="s" s="2">
-        <v>793</v>
       </c>
       <c r="O132" t="s" s="2">
         <v>45</v>
@@ -18504,7 +18556,7 @@
         <v>45</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>43</v>
@@ -18519,7 +18571,7 @@
         <v>45</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>45</v>
+        <v>792</v>
       </c>
       <c r="AK132" t="s" s="2">
         <v>45</v>
@@ -18528,26 +18580,24 @@
         <v>45</v>
       </c>
       <c r="AM132" t="s" s="2">
+        <v>793</v>
+      </c>
+      <c r="AN132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO132" t="s" s="2">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="133" hidden="true">
+      <c r="A133" t="s" s="2">
         <v>795</v>
-      </c>
-      <c r="AN132" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO132" t="s" s="2">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="s" s="2">
-        <v>796</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D133" t="s" s="2">
-        <v>797</v>
-      </c>
+      <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
         <v>43</v>
       </c>
@@ -18555,7 +18605,7 @@
         <v>54</v>
       </c>
       <c r="G133" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H133" t="s" s="2">
         <v>45</v>
@@ -18564,19 +18614,17 @@
         <v>55</v>
       </c>
       <c r="J133" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="K133" t="s" s="2">
+        <v>796</v>
+      </c>
+      <c r="L133" t="s" s="2">
+        <v>797</v>
+      </c>
+      <c r="M133" s="2"/>
+      <c r="N133" t="s" s="2">
         <v>798</v>
-      </c>
-      <c r="K133" t="s" s="2">
-        <v>799</v>
-      </c>
-      <c r="L133" t="s" s="2">
-        <v>800</v>
-      </c>
-      <c r="M133" t="s" s="2">
-        <v>801</v>
-      </c>
-      <c r="N133" t="s" s="2">
-        <v>802</v>
       </c>
       <c r="O133" t="s" s="2">
         <v>45</v>
@@ -18625,7 +18673,7 @@
         <v>45</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>43</v>
@@ -18634,13 +18682,13 @@
         <v>54</v>
       </c>
       <c r="AH133" t="s" s="2">
-        <v>45</v>
+        <v>800</v>
       </c>
       <c r="AI133" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ133" t="s" s="2">
-        <v>804</v>
+        <v>45</v>
       </c>
       <c r="AK133" t="s" s="2">
         <v>45</v>
@@ -18649,18 +18697,18 @@
         <v>45</v>
       </c>
       <c r="AM133" t="s" s="2">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="AN133" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO133" t="s" s="2">
-        <v>45</v>
+        <v>794</v>
       </c>
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -18683,19 +18731,19 @@
         <v>55</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>807</v>
+        <v>73</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="O134" t="s" s="2">
         <v>45</v>
@@ -18744,7 +18792,7 @@
         <v>45</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>43</v>
@@ -18768,24 +18816,26 @@
         <v>45</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="AN134" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO134" t="s" s="2">
-        <v>45</v>
+        <v>794</v>
       </c>
     </row>
-    <row r="135" hidden="true">
+    <row r="135">
       <c r="A135" t="s" s="2">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D135" s="2"/>
+      <c r="D135" t="s" s="2">
+        <v>810</v>
+      </c>
       <c r="E135" t="s" s="2">
         <v>43</v>
       </c>
@@ -18793,7 +18843,7 @@
         <v>54</v>
       </c>
       <c r="G135" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H135" t="s" s="2">
         <v>45</v>
@@ -18802,17 +18852,19 @@
         <v>55</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="K135" t="s" s="2">
+        <v>812</v>
+      </c>
+      <c r="L135" t="s" s="2">
+        <v>813</v>
+      </c>
+      <c r="M135" t="s" s="2">
+        <v>814</v>
+      </c>
+      <c r="N135" t="s" s="2">
         <v>815</v>
-      </c>
-      <c r="L135" t="s" s="2">
-        <v>816</v>
-      </c>
-      <c r="M135" s="2"/>
-      <c r="N135" t="s" s="2">
-        <v>817</v>
       </c>
       <c r="O135" t="s" s="2">
         <v>45</v>
@@ -18861,7 +18913,7 @@
         <v>45</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>43</v>
@@ -18876,7 +18928,7 @@
         <v>45</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>45</v>
+        <v>817</v>
       </c>
       <c r="AK135" t="s" s="2">
         <v>45</v>
@@ -18885,7 +18937,7 @@
         <v>45</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="AN135" t="s" s="2">
         <v>45</v>
@@ -18919,19 +18971,19 @@
         <v>55</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>798</v>
+        <v>820</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>45</v>
@@ -18968,17 +19020,19 @@
         <v>45</v>
       </c>
       <c r="AA136" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AB136" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB136" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC136" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD136" t="s" s="2">
-        <v>335</v>
+        <v>45</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>43</v>
@@ -19002,7 +19056,7 @@
         <v>45</v>
       </c>
       <c r="AM136" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="AN136" t="s" s="2">
         <v>45</v>
@@ -19011,19 +19065,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>819</v>
-      </c>
-      <c r="B137" t="s" s="2">
-        <v>826</v>
-      </c>
+        <v>827</v>
+      </c>
+      <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D137" t="s" s="2">
-        <v>827</v>
-      </c>
+      <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
         <v>43</v>
       </c>
@@ -19031,7 +19081,7 @@
         <v>54</v>
       </c>
       <c r="G137" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H137" t="s" s="2">
         <v>45</v>
@@ -19040,7 +19090,7 @@
         <v>55</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>798</v>
+        <v>820</v>
       </c>
       <c r="K137" t="s" s="2">
         <v>828</v>
@@ -19048,11 +19098,9 @@
       <c r="L137" t="s" s="2">
         <v>829</v>
       </c>
-      <c r="M137" t="s" s="2">
-        <v>822</v>
-      </c>
+      <c r="M137" s="2"/>
       <c r="N137" t="s" s="2">
-        <v>823</v>
+        <v>830</v>
       </c>
       <c r="O137" t="s" s="2">
         <v>45</v>
@@ -19101,7 +19149,7 @@
         <v>45</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>824</v>
+        <v>831</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>43</v>
@@ -19116,7 +19164,7 @@
         <v>45</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>830</v>
+        <v>45</v>
       </c>
       <c r="AK137" t="s" s="2">
         <v>45</v>
@@ -19125,7 +19173,7 @@
         <v>45</v>
       </c>
       <c r="AM137" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="AN137" t="s" s="2">
         <v>45</v>
@@ -19136,7 +19184,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -19156,19 +19204,23 @@
         <v>45</v>
       </c>
       <c r="I138" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>441</v>
+        <v>811</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>833</v>
-      </c>
-      <c r="M138" s="2"/>
-      <c r="N138" s="2"/>
+        <v>834</v>
+      </c>
+      <c r="M138" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="N138" t="s" s="2">
+        <v>836</v>
+      </c>
       <c r="O138" t="s" s="2">
         <v>45</v>
       </c>
@@ -19204,19 +19256,17 @@
         <v>45</v>
       </c>
       <c r="AA138" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB138" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="AB138" s="2"/>
       <c r="AC138" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD138" t="s" s="2">
-        <v>45</v>
+        <v>336</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>43</v>
@@ -19228,7 +19278,7 @@
         <v>45</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>834</v>
+        <v>45</v>
       </c>
       <c r="AJ138" t="s" s="2">
         <v>45</v>
@@ -19237,10 +19287,10 @@
         <v>45</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>835</v>
+        <v>45</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="AN138" t="s" s="2">
         <v>45</v>
@@ -19249,15 +19299,19 @@
         <v>45</v>
       </c>
     </row>
-    <row r="139" hidden="true">
+    <row r="139">
       <c r="A139" t="s" s="2">
-        <v>837</v>
-      </c>
-      <c r="B139" s="2"/>
+        <v>832</v>
+      </c>
+      <c r="B139" t="s" s="2">
+        <v>839</v>
+      </c>
       <c r="C139" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D139" s="2"/>
+      <c r="D139" t="s" s="2">
+        <v>840</v>
+      </c>
       <c r="E139" t="s" s="2">
         <v>43</v>
       </c>
@@ -19265,25 +19319,29 @@
         <v>54</v>
       </c>
       <c r="G139" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H139" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I139" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>210</v>
+        <v>811</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>211</v>
+        <v>841</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M139" s="2"/>
-      <c r="N139" s="2"/>
+        <v>842</v>
+      </c>
+      <c r="M139" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="N139" t="s" s="2">
+        <v>836</v>
+      </c>
       <c r="O139" t="s" s="2">
         <v>45</v>
       </c>
@@ -19331,7 +19389,7 @@
         <v>45</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>213</v>
+        <v>837</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>43</v>
@@ -19346,7 +19404,7 @@
         <v>45</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>45</v>
+        <v>843</v>
       </c>
       <c r="AK139" t="s" s="2">
         <v>45</v>
@@ -19355,7 +19413,7 @@
         <v>45</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>214</v>
+        <v>838</v>
       </c>
       <c r="AN139" t="s" s="2">
         <v>45</v>
@@ -19366,18 +19424,18 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
-        <v>195</v>
+        <v>45</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F140" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G140" t="s" s="2">
         <v>45</v>
@@ -19389,17 +19447,15 @@
         <v>45</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>99</v>
+        <v>448</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>216</v>
+        <v>845</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M140" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>846</v>
+      </c>
+      <c r="M140" s="2"/>
       <c r="N140" s="2"/>
       <c r="O140" t="s" s="2">
         <v>45</v>
@@ -19448,19 +19504,19 @@
         <v>45</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>219</v>
+        <v>844</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI140" t="s" s="2">
-        <v>45</v>
+        <v>847</v>
       </c>
       <c r="AJ140" t="s" s="2">
         <v>45</v>
@@ -19469,10 +19525,10 @@
         <v>45</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>45</v>
+        <v>848</v>
       </c>
       <c r="AM140" t="s" s="2">
-        <v>214</v>
+        <v>849</v>
       </c>
       <c r="AN140" t="s" s="2">
         <v>45</v>
@@ -19483,40 +19539,38 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>839</v>
+        <v>850</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
-        <v>450</v>
+        <v>45</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F141" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G141" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H141" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I141" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>99</v>
+        <v>210</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="M141" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="M141" s="2"/>
       <c r="N141" s="2"/>
       <c r="O141" t="s" s="2">
         <v>45</v>
@@ -19565,13 +19619,13 @@
         <v>45</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>452</v>
+        <v>213</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH141" t="s" s="2">
         <v>45</v>
@@ -19589,7 +19643,7 @@
         <v>45</v>
       </c>
       <c r="AM141" t="s" s="2">
-        <v>97</v>
+        <v>214</v>
       </c>
       <c r="AN141" t="s" s="2">
         <v>45</v>
@@ -19600,18 +19654,18 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>840</v>
+        <v>851</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
-        <v>45</v>
+        <v>195</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F142" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G142" t="s" s="2">
         <v>45</v>
@@ -19623,20 +19677,18 @@
         <v>45</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>260</v>
+        <v>99</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>841</v>
+        <v>216</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>842</v>
+        <v>217</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>843</v>
-      </c>
-      <c r="N142" t="s" s="2">
-        <v>844</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="N142" s="2"/>
       <c r="O142" t="s" s="2">
         <v>45</v>
       </c>
@@ -19684,13 +19736,13 @@
         <v>45</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>840</v>
+        <v>219</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>45</v>
@@ -19705,10 +19757,10 @@
         <v>45</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>845</v>
+        <v>45</v>
       </c>
       <c r="AM142" t="s" s="2">
-        <v>846</v>
+        <v>214</v>
       </c>
       <c r="AN142" t="s" s="2">
         <v>45</v>
@@ -19719,39 +19771,39 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
-        <v>45</v>
+        <v>457</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F143" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G143" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H143" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I143" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>848</v>
+        <v>99</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>849</v>
+        <v>196</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>850</v>
+        <v>458</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>851</v>
+        <v>198</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" t="s" s="2">
@@ -19801,13 +19853,13 @@
         <v>45</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>847</v>
+        <v>459</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>45</v>
@@ -19822,21 +19874,21 @@
         <v>45</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>852</v>
+        <v>45</v>
       </c>
       <c r="AM143" t="s" s="2">
-        <v>853</v>
+        <v>97</v>
       </c>
       <c r="AN143" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO143" t="s" s="2">
-        <v>854</v>
+        <v>45</v>
       </c>
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -19859,16 +19911,20 @@
         <v>45</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>807</v>
+        <v>260</v>
       </c>
       <c r="K144" t="s" s="2">
+        <v>854</v>
+      </c>
+      <c r="L144" t="s" s="2">
+        <v>855</v>
+      </c>
+      <c r="M144" t="s" s="2">
         <v>856</v>
       </c>
-      <c r="L144" t="s" s="2">
+      <c r="N144" t="s" s="2">
         <v>857</v>
       </c>
-      <c r="M144" s="2"/>
-      <c r="N144" s="2"/>
       <c r="O144" t="s" s="2">
         <v>45</v>
       </c>
@@ -19916,7 +19972,7 @@
         <v>45</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>43</v>
@@ -19946,12 +20002,12 @@
         <v>45</v>
       </c>
       <c r="AO144" t="s" s="2">
-        <v>860</v>
+        <v>45</v>
       </c>
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -19974,16 +20030,16 @@
         <v>45</v>
       </c>
       <c r="J145" t="s" s="2">
+        <v>861</v>
+      </c>
+      <c r="K145" t="s" s="2">
         <v>862</v>
       </c>
-      <c r="K145" t="s" s="2">
+      <c r="L145" t="s" s="2">
         <v>863</v>
       </c>
-      <c r="L145" t="s" s="2">
+      <c r="M145" t="s" s="2">
         <v>864</v>
-      </c>
-      <c r="M145" t="s" s="2">
-        <v>865</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" t="s" s="2">
@@ -20033,7 +20089,7 @@
         <v>45</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>43</v>
@@ -20054,16 +20110,16 @@
         <v>45</v>
       </c>
       <c r="AL145" t="s" s="2">
+        <v>865</v>
+      </c>
+      <c r="AM145" t="s" s="2">
         <v>866</v>
       </c>
-      <c r="AM145" t="s" s="2">
+      <c r="AN145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO145" t="s" s="2">
         <v>867</v>
-      </c>
-      <c r="AN145" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO145" t="s" s="2">
-        <v>45</v>
       </c>
     </row>
     <row r="146" hidden="true">
@@ -20091,7 +20147,7 @@
         <v>45</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>267</v>
+        <v>820</v>
       </c>
       <c r="K146" t="s" s="2">
         <v>869</v>
@@ -20169,21 +20225,21 @@
         <v>45</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>45</v>
+        <v>871</v>
       </c>
       <c r="AM146" t="s" s="2">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="AN146" t="s" s="2">
-        <v>476</v>
+        <v>45</v>
       </c>
       <c r="AO146" t="s" s="2">
-        <v>45</v>
+        <v>873</v>
       </c>
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -20206,15 +20262,17 @@
         <v>45</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>441</v>
+        <v>875</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>874</v>
-      </c>
-      <c r="M147" s="2"/>
+        <v>877</v>
+      </c>
+      <c r="M147" t="s" s="2">
+        <v>878</v>
+      </c>
       <c r="N147" s="2"/>
       <c r="O147" t="s" s="2">
         <v>45</v>
@@ -20263,7 +20321,7 @@
         <v>45</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>43</v>
@@ -20275,7 +20333,7 @@
         <v>45</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>834</v>
+        <v>45</v>
       </c>
       <c r="AJ147" t="s" s="2">
         <v>45</v>
@@ -20284,10 +20342,10 @@
         <v>45</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="AM147" t="s" s="2">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="AN147" t="s" s="2">
         <v>45</v>
@@ -20296,15 +20354,17 @@
         <v>45</v>
       </c>
     </row>
-    <row r="148" hidden="true">
+    <row r="148">
       <c r="A148" t="s" s="2">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D148" s="2"/>
+      <c r="D148" t="s" s="2">
+        <v>882</v>
+      </c>
       <c r="E148" t="s" s="2">
         <v>43</v>
       </c>
@@ -20312,7 +20372,7 @@
         <v>54</v>
       </c>
       <c r="G148" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H148" t="s" s="2">
         <v>45</v>
@@ -20321,13 +20381,13 @@
         <v>45</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>210</v>
+        <v>267</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>211</v>
+        <v>883</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>212</v>
+        <v>884</v>
       </c>
       <c r="M148" s="2"/>
       <c r="N148" s="2"/>
@@ -20378,7 +20438,7 @@
         <v>45</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>213</v>
+        <v>881</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>43</v>
@@ -20393,7 +20453,7 @@
         <v>45</v>
       </c>
       <c r="AJ148" t="s" s="2">
-        <v>45</v>
+        <v>885</v>
       </c>
       <c r="AK148" t="s" s="2">
         <v>45</v>
@@ -20402,10 +20462,10 @@
         <v>45</v>
       </c>
       <c r="AM148" t="s" s="2">
-        <v>214</v>
+        <v>886</v>
       </c>
       <c r="AN148" t="s" s="2">
-        <v>45</v>
+        <v>483</v>
       </c>
       <c r="AO148" t="s" s="2">
         <v>45</v>
@@ -20413,18 +20473,18 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>878</v>
+        <v>887</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
-        <v>195</v>
+        <v>45</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F149" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G149" t="s" s="2">
         <v>45</v>
@@ -20436,17 +20496,15 @@
         <v>45</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>99</v>
+        <v>448</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>216</v>
+        <v>888</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M149" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>889</v>
+      </c>
+      <c r="M149" s="2"/>
       <c r="N149" s="2"/>
       <c r="O149" t="s" s="2">
         <v>45</v>
@@ -20495,19 +20553,19 @@
         <v>45</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>219</v>
+        <v>887</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH149" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI149" t="s" s="2">
-        <v>45</v>
+        <v>847</v>
       </c>
       <c r="AJ149" t="s" s="2">
         <v>45</v>
@@ -20516,10 +20574,10 @@
         <v>45</v>
       </c>
       <c r="AL149" t="s" s="2">
-        <v>45</v>
+        <v>890</v>
       </c>
       <c r="AM149" t="s" s="2">
-        <v>214</v>
+        <v>891</v>
       </c>
       <c r="AN149" t="s" s="2">
         <v>45</v>
@@ -20530,40 +20588,38 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>879</v>
+        <v>892</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
-        <v>450</v>
+        <v>45</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F150" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G150" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H150" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I150" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>99</v>
+        <v>210</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="M150" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="M150" s="2"/>
       <c r="N150" s="2"/>
       <c r="O150" t="s" s="2">
         <v>45</v>
@@ -20612,13 +20668,13 @@
         <v>45</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>452</v>
+        <v>213</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH150" t="s" s="2">
         <v>45</v>
@@ -20636,7 +20692,7 @@
         <v>45</v>
       </c>
       <c r="AM150" t="s" s="2">
-        <v>97</v>
+        <v>214</v>
       </c>
       <c r="AN150" t="s" s="2">
         <v>45</v>
@@ -20647,39 +20703,39 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>880</v>
+        <v>893</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
-        <v>45</v>
+        <v>195</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F151" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G151" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H151" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I151" t="s" s="2">
         <v>45</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>387</v>
+        <v>99</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>881</v>
+        <v>216</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>882</v>
+        <v>217</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>883</v>
+        <v>198</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" t="s" s="2">
@@ -20729,13 +20785,13 @@
         <v>45</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>880</v>
+        <v>219</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>45</v>
@@ -20750,52 +20806,54 @@
         <v>45</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>875</v>
+        <v>45</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>884</v>
+        <v>214</v>
       </c>
       <c r="AN151" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO151" t="s" s="2">
-        <v>885</v>
+        <v>45</v>
       </c>
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>886</v>
+        <v>894</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
-        <v>45</v>
+        <v>457</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F152" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G152" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H152" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I152" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>231</v>
+        <v>99</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>887</v>
+        <v>196</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>888</v>
-      </c>
-      <c r="M152" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="M152" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="N152" s="2"/>
       <c r="O152" t="s" s="2">
         <v>45</v>
@@ -20820,13 +20878,13 @@
         <v>45</v>
       </c>
       <c r="W152" t="s" s="2">
-        <v>331</v>
+        <v>45</v>
       </c>
       <c r="X152" t="s" s="2">
-        <v>889</v>
+        <v>45</v>
       </c>
       <c r="Y152" t="s" s="2">
-        <v>890</v>
+        <v>45</v>
       </c>
       <c r="Z152" t="s" s="2">
         <v>45</v>
@@ -20844,13 +20902,13 @@
         <v>45</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>886</v>
+        <v>459</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG152" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH152" t="s" s="2">
         <v>45</v>
@@ -20865,21 +20923,21 @@
         <v>45</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>891</v>
+        <v>45</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>892</v>
+        <v>97</v>
       </c>
       <c r="AN152" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO152" t="s" s="2">
-        <v>893</v>
+        <v>45</v>
       </c>
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -20887,7 +20945,7 @@
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="F153" t="s" s="2">
         <v>54</v>
@@ -20896,13 +20954,13 @@
         <v>45</v>
       </c>
       <c r="H153" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I153" t="s" s="2">
         <v>45</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>895</v>
+        <v>388</v>
       </c>
       <c r="K153" t="s" s="2">
         <v>896</v>
@@ -20910,7 +20968,9 @@
       <c r="L153" t="s" s="2">
         <v>897</v>
       </c>
-      <c r="M153" s="2"/>
+      <c r="M153" t="s" s="2">
+        <v>898</v>
+      </c>
       <c r="N153" s="2"/>
       <c r="O153" t="s" s="2">
         <v>45</v>
@@ -20959,10 +21019,10 @@
         <v>45</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>54</v>
@@ -20977,10 +21037,10 @@
         <v>45</v>
       </c>
       <c r="AK153" t="s" s="2">
-        <v>898</v>
+        <v>45</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="AM153" t="s" s="2">
         <v>899</v>
@@ -20989,23 +21049,23 @@
         <v>45</v>
       </c>
       <c r="AO153" t="s" s="2">
-        <v>45</v>
+        <v>900</v>
       </c>
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
-        <v>901</v>
+        <v>45</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F154" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G154" t="s" s="2">
         <v>45</v>
@@ -21017,13 +21077,13 @@
         <v>45</v>
       </c>
       <c r="J154" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="K154" t="s" s="2">
         <v>902</v>
       </c>
-      <c r="K154" t="s" s="2">
+      <c r="L154" t="s" s="2">
         <v>903</v>
-      </c>
-      <c r="L154" t="s" s="2">
-        <v>904</v>
       </c>
       <c r="M154" s="2"/>
       <c r="N154" s="2"/>
@@ -21050,13 +21110,13 @@
         <v>45</v>
       </c>
       <c r="W154" t="s" s="2">
-        <v>45</v>
+        <v>332</v>
       </c>
       <c r="X154" t="s" s="2">
-        <v>45</v>
+        <v>904</v>
       </c>
       <c r="Y154" t="s" s="2">
-        <v>45</v>
+        <v>905</v>
       </c>
       <c r="Z154" t="s" s="2">
         <v>45</v>
@@ -21074,13 +21134,13 @@
         <v>45</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH154" t="s" s="2">
         <v>45</v>
@@ -21095,21 +21155,21 @@
         <v>45</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>45</v>
+        <v>906</v>
       </c>
       <c r="AM154" t="s" s="2">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="AN154" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO154" t="s" s="2">
-        <v>45</v>
+        <v>908</v>
       </c>
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -21120,7 +21180,7 @@
         <v>43</v>
       </c>
       <c r="F155" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G155" t="s" s="2">
         <v>45</v>
@@ -21132,17 +21192,15 @@
         <v>45</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>909</v>
-      </c>
-      <c r="M155" t="s" s="2">
-        <v>910</v>
-      </c>
+        <v>912</v>
+      </c>
+      <c r="M155" s="2"/>
       <c r="N155" s="2"/>
       <c r="O155" t="s" s="2">
         <v>45</v>
@@ -21191,41 +21249,273 @@
         <v>45</v>
       </c>
       <c r="AE155" t="s" s="2">
+        <v>909</v>
+      </c>
+      <c r="AF155" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG155" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH155" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI155" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ155" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK155" t="s" s="2">
+        <v>913</v>
+      </c>
+      <c r="AL155" t="s" s="2">
         <v>906</v>
       </c>
-      <c r="AF155" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG155" t="s" s="2">
+      <c r="AM155" t="s" s="2">
+        <v>914</v>
+      </c>
+      <c r="AN155" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO155" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="156" hidden="true">
+      <c r="A156" t="s" s="2">
+        <v>915</v>
+      </c>
+      <c r="B156" s="2"/>
+      <c r="C156" t="s" s="2">
+        <v>916</v>
+      </c>
+      <c r="D156" s="2"/>
+      <c r="E156" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F156" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AH155" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI155" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ155" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK155" t="s" s="2">
-        <v>911</v>
-      </c>
-      <c r="AL155" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM155" t="s" s="2">
-        <v>912</v>
-      </c>
-      <c r="AN155" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO155" t="s" s="2">
+      <c r="G156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J156" t="s" s="2">
+        <v>917</v>
+      </c>
+      <c r="K156" t="s" s="2">
+        <v>918</v>
+      </c>
+      <c r="L156" t="s" s="2">
+        <v>919</v>
+      </c>
+      <c r="M156" s="2"/>
+      <c r="N156" s="2"/>
+      <c r="O156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P156" s="2"/>
+      <c r="Q156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE156" t="s" s="2">
+        <v>915</v>
+      </c>
+      <c r="AF156" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG156" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM156" t="s" s="2">
+        <v>920</v>
+      </c>
+      <c r="AN156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO156" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="157" hidden="true">
+      <c r="A157" t="s" s="2">
+        <v>921</v>
+      </c>
+      <c r="B157" s="2"/>
+      <c r="C157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D157" s="2"/>
+      <c r="E157" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F157" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J157" t="s" s="2">
+        <v>922</v>
+      </c>
+      <c r="K157" t="s" s="2">
+        <v>923</v>
+      </c>
+      <c r="L157" t="s" s="2">
+        <v>924</v>
+      </c>
+      <c r="M157" t="s" s="2">
+        <v>925</v>
+      </c>
+      <c r="N157" s="2"/>
+      <c r="O157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P157" s="2"/>
+      <c r="Q157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE157" t="s" s="2">
+        <v>921</v>
+      </c>
+      <c r="AF157" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG157" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK157" t="s" s="2">
+        <v>926</v>
+      </c>
+      <c r="AL157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM157" t="s" s="2">
+        <v>927</v>
+      </c>
+      <c r="AN157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO157" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO155">
+  <autoFilter ref="A1:AO157">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -21235,7 +21525,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI154">
+  <conditionalFormatting sqref="A2:AI156">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
